--- a/DriverDrowsiness/results/output_ff.xlsx
+++ b/DriverDrowsiness/results/output_ff.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Recall Drowsy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Recall Non-Drowsy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>History Plot</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Confusion Matrix</t>
         </is>
       </c>
     </row>
@@ -556,14 +571,25 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>81.00000023841858</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M2" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>./plots/full_face/history_1.png</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_1.png</t>
         </is>
       </c>
     </row>
@@ -618,14 +644,25 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>87.00000047683716</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M3" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>./plots/full_face/history_2.png</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_2.png</t>
         </is>
       </c>
     </row>
@@ -680,14 +717,25 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>79.00000214576721</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>./plots/full_face/history_3.png</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_3.png</t>
         </is>
       </c>
     </row>
@@ -742,14 +790,25 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>86.00000143051147</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>./plots/full_face/history_4.png</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_4.png</t>
         </is>
       </c>
     </row>
@@ -804,14 +863,25 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>67.00000166893005</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M6" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>./plots/full_face/history_5.png</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_5.png</t>
         </is>
       </c>
     </row>
@@ -866,14 +936,25 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>77.99999713897705</v>
+        <v>50</v>
       </c>
       <c r="M7" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>./plots/full_face/history_6.png</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_6.png</t>
         </is>
       </c>
     </row>
@@ -928,14 +1009,25 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>77.99999713897705</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M8" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>./plots/full_face/history_7.png</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_7.png</t>
         </is>
       </c>
     </row>
@@ -990,14 +1082,25 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>77.99999713897705</v>
+        <v>83.99999737739563</v>
       </c>
       <c r="M9" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>./plots/full_face/history_8.png</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_8.png</t>
         </is>
       </c>
     </row>
@@ -1052,14 +1155,25 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>50</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M10" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>./plots/full_face/history_9.png</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_9.png</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1228,25 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>75.99999904632568</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M11" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>./plots/full_face/history_10.png</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_10.png</t>
         </is>
       </c>
     </row>
@@ -1176,14 +1301,25 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>76.99999809265137</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M12" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>./plots/full_face/history_11.png</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_11.png</t>
         </is>
       </c>
     </row>
@@ -1238,14 +1374,25 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>73.00000190734863</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M13" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>./plots/full_face/history_12.png</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_12.png</t>
         </is>
       </c>
     </row>
@@ -1300,14 +1447,25 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>73.00000190734863</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M14" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>./plots/full_face/history_13.png</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_13.png</t>
         </is>
       </c>
     </row>
@@ -1362,14 +1520,25 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>56.99999928474426</v>
+        <v>75</v>
       </c>
       <c r="M15" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>./plots/full_face/history_14.png</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_14.png</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1593,25 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M16" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>./plots/full_face/history_15.png</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_15.png</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1666,25 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>62.99999952316284</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M17" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>./plots/full_face/history_16.png</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_16.png</t>
         </is>
       </c>
     </row>
@@ -1548,14 +1739,25 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>80.0000011920929</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M18" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>./plots/full_face/history_17.png</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_17.png</t>
         </is>
       </c>
     </row>
@@ -1610,14 +1812,25 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>50</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M19" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>./plots/full_face/history_18.png</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_18.png</t>
         </is>
       </c>
     </row>
@@ -1672,14 +1885,25 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>56.99999928474426</v>
+        <v>66.00000262260437</v>
       </c>
       <c r="M20" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>./plots/full_face/history_19.png</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_19.png</t>
         </is>
       </c>
     </row>
@@ -1734,14 +1958,25 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>57.99999833106995</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M21" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>./plots/full_face/history_20.png</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_20.png</t>
         </is>
       </c>
     </row>
@@ -1796,14 +2031,25 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>58.99999737739563</v>
+        <v>64.99999761581421</v>
       </c>
       <c r="M22" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>./plots/full_face/history_21.png</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_21.png</t>
         </is>
       </c>
     </row>
@@ -1858,14 +2104,25 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>63.99999856948853</v>
+        <v>66.00000262260437</v>
       </c>
       <c r="M23" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>./plots/full_face/history_22.png</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_22.png</t>
         </is>
       </c>
     </row>
@@ -1920,14 +2177,25 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>81.00000023841858</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M24" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>./plots/full_face/history_23.png</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_23.png</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2250,25 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>75.99999904632568</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M25" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>./plots/full_face/history_24.png</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_24.png</t>
         </is>
       </c>
     </row>
@@ -2049,9 +2328,20 @@
       <c r="M26" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>./plots/full_face/history_25.png</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_25.png</t>
         </is>
       </c>
     </row>
@@ -2106,14 +2396,25 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>69.9999988079071</v>
+        <v>60.00000238418579</v>
       </c>
       <c r="M27" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>./plots/full_face/history_26.png</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_26.png</t>
         </is>
       </c>
     </row>
@@ -2168,14 +2469,25 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>54.00000214576721</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M28" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>./plots/full_face/history_27.png</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_27.png</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2542,25 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>76.99999809265137</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M29" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>./plots/full_face/history_28.png</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_28.png</t>
         </is>
       </c>
     </row>
@@ -2292,14 +2615,25 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>83.99999737739563</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M30" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>./plots/full_face/history_29.png</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_29.png</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2688,25 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>73.00000190734863</v>
+        <v>64.99999761581421</v>
       </c>
       <c r="M31" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>./plots/full_face/history_30.png</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_30.png</t>
         </is>
       </c>
     </row>
@@ -2416,14 +2761,25 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>77.99999713897705</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M32" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>./plots/full_face/history_31.png</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_31.png</t>
         </is>
       </c>
     </row>
@@ -2478,14 +2834,25 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>74.00000095367432</v>
+        <v>50</v>
       </c>
       <c r="M33" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>./plots/full_face/history_32.png</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_32.png</t>
         </is>
       </c>
     </row>
@@ -2540,14 +2907,25 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>77.99999713897705</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M34" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>./plots/full_face/history_33.png</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_33.png</t>
         </is>
       </c>
     </row>
@@ -2602,14 +2980,25 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>89.99999761581421</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M35" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>./plots/full_face/history_34.png</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_34.png</t>
         </is>
       </c>
     </row>
@@ -2664,14 +3053,25 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>66.00000262260437</v>
+        <v>64.99999761581421</v>
       </c>
       <c r="M36" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>./plots/full_face/history_35.png</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_35.png</t>
         </is>
       </c>
     </row>
@@ -2726,14 +3126,25 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>76.99999809265137</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M37" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>./plots/full_face/history_36.png</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_36.png</t>
         </is>
       </c>
     </row>
@@ -2788,14 +3199,25 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>77.99999713897705</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M38" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>./plots/full_face/history_37.png</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_37.png</t>
         </is>
       </c>
     </row>
@@ -2850,14 +3272,25 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>50.99999904632568</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M39" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>./plots/full_face/history_38.png</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_38.png</t>
         </is>
       </c>
     </row>
@@ -2917,9 +3350,20 @@
       <c r="M40" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N40" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>./plots/full_face/history_39.png</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_39.png</t>
         </is>
       </c>
     </row>
@@ -2974,14 +3418,25 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>75.99999904632568</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M41" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>./plots/full_face/history_40.png</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_40.png</t>
         </is>
       </c>
     </row>
@@ -3036,14 +3491,25 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>70.99999785423279</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M42" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>./plots/full_face/history_41.png</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_41.png</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3564,25 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>51.99999809265137</v>
+        <v>66.00000262260437</v>
       </c>
       <c r="M43" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>./plots/full_face/history_42.png</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_42.png</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3637,25 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>72.00000286102295</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M44" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N44" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>./plots/full_face/history_43.png</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_43.png</t>
         </is>
       </c>
     </row>
@@ -3222,14 +3710,25 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>81.00000023841858</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M45" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N45" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>./plots/full_face/history_44.png</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_44.png</t>
         </is>
       </c>
     </row>
@@ -3284,14 +3783,25 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>50</v>
+        <v>62.00000047683716</v>
       </c>
       <c r="M46" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>./plots/full_face/history_45.png</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_45.png</t>
         </is>
       </c>
     </row>
@@ -3346,14 +3856,25 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>66.00000262260437</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M47" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N47" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>./plots/full_face/history_46.png</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_46.png</t>
         </is>
       </c>
     </row>
@@ -3408,14 +3929,25 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>83.99999737739563</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M48" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>./plots/full_face/history_47.png</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_47.png</t>
         </is>
       </c>
     </row>
@@ -3470,14 +4002,25 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>57.99999833106995</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M49" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>./plots/full_face/history_48.png</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_48.png</t>
         </is>
       </c>
     </row>
@@ -3532,14 +4075,25 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>77.99999713897705</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M50" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>./plots/full_face/history_49.png</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_49.png</t>
         </is>
       </c>
     </row>
@@ -3594,14 +4148,25 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>81.00000023841858</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M51" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>./plots/full_face/history_50.png</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_50.png</t>
         </is>
       </c>
     </row>
@@ -3656,14 +4221,25 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>86.00000143051147</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M52" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>./plots/full_face/history_51.png</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_51.png</t>
         </is>
       </c>
     </row>
@@ -3718,14 +4294,25 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>79.00000214576721</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M53" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>./plots/full_face/history_52.png</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_52.png</t>
         </is>
       </c>
     </row>
@@ -3780,14 +4367,25 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>76.99999809265137</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M54" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>./plots/full_face/history_53.png</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_53.png</t>
         </is>
       </c>
     </row>
@@ -3842,14 +4440,25 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>76.99999809265137</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M55" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N55" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>./plots/full_face/history_54.png</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_54.png</t>
         </is>
       </c>
     </row>
@@ -3909,9 +4518,20 @@
       <c r="M56" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>./plots/full_face/history_55.png</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_55.png</t>
         </is>
       </c>
     </row>
@@ -3966,14 +4586,25 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>75.99999904632568</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M57" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>./plots/full_face/history_56.png</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_56.png</t>
         </is>
       </c>
     </row>
@@ -4028,14 +4659,25 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>75.99999904632568</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M58" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>./plots/full_face/history_57.png</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_57.png</t>
         </is>
       </c>
     </row>
@@ -4090,14 +4732,25 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>70.99999785423279</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M59" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N59" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>./plots/full_face/history_58.png</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_58.png</t>
         </is>
       </c>
     </row>
@@ -4152,14 +4805,25 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>75</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M60" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>./plots/full_face/history_59.png</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_59.png</t>
         </is>
       </c>
     </row>
@@ -4214,14 +4878,25 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>74.00000095367432</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M61" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>./plots/full_face/history_60.png</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_60.png</t>
         </is>
       </c>
     </row>
@@ -4276,14 +4951,25 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>55.0000011920929</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M62" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N62" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>./plots/full_face/history_61.png</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_61.png</t>
         </is>
       </c>
     </row>
@@ -4338,14 +5024,25 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>54.00000214576721</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M63" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N63" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>./plots/full_face/history_62.png</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_62.png</t>
         </is>
       </c>
     </row>
@@ -4400,14 +5097,25 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>50.99999904632568</v>
+        <v>50</v>
       </c>
       <c r="M64" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N64" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>./plots/full_face/history_63.png</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_63.png</t>
         </is>
       </c>
     </row>
@@ -4462,14 +5170,25 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>56.99999928474426</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M65" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N65" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>./plots/full_face/history_64.png</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_64.png</t>
         </is>
       </c>
     </row>
@@ -4529,9 +5248,20 @@
       <c r="M66" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N66" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>./plots/full_face/history_65.png</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_65.png</t>
         </is>
       </c>
     </row>
@@ -4586,14 +5316,25 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>62.99999952316284</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M67" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N67" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>./plots/full_face/history_66.png</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_66.png</t>
         </is>
       </c>
     </row>
@@ -4648,14 +5389,25 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>76.99999809265137</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M68" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N68" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>./plots/full_face/history_67.png</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_67.png</t>
         </is>
       </c>
     </row>
@@ -4710,14 +5462,25 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>73.00000190734863</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M69" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N69" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>./plots/full_face/history_68.png</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_68.png</t>
         </is>
       </c>
     </row>
@@ -4772,14 +5535,25 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>50</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M70" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N70" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>./plots/full_face/history_69.png</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_69.png</t>
         </is>
       </c>
     </row>
@@ -4834,14 +5608,25 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>72.00000286102295</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M71" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>./plots/full_face/history_70.png</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_70.png</t>
         </is>
       </c>
     </row>
@@ -4896,14 +5681,25 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>79.00000214576721</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M72" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N72" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>./plots/full_face/history_71.png</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_71.png</t>
         </is>
       </c>
     </row>
@@ -4958,14 +5754,25 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>67.00000166893005</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M73" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N73" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>./plots/full_face/history_72.png</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_72.png</t>
         </is>
       </c>
     </row>
@@ -5020,14 +5827,25 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>72.00000286102295</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M74" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N74" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>./plots/full_face/history_73.png</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_73.png</t>
         </is>
       </c>
     </row>
@@ -5082,14 +5900,25 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>70.99999785423279</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M75" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N75" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>./plots/full_face/history_74.png</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_74.png</t>
         </is>
       </c>
     </row>
@@ -5144,14 +5973,25 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>69.9999988079071</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M76" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N76" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>./plots/full_face/history_75.png</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_75.png</t>
         </is>
       </c>
     </row>
@@ -5206,14 +6046,25 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>72.00000286102295</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M77" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>./plots/full_face/history_76.png</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_76.png</t>
         </is>
       </c>
     </row>
@@ -5268,14 +6119,25 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>56.99999928474426</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M78" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N78" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>./plots/full_face/history_77.png</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_77.png</t>
         </is>
       </c>
     </row>
@@ -5330,14 +6192,25 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>68.00000071525574</v>
+        <v>75</v>
       </c>
       <c r="M79" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>./plots/full_face/history_78.png</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_78.png</t>
         </is>
       </c>
     </row>
@@ -5392,14 +6265,25 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>74.00000095367432</v>
+        <v>75</v>
       </c>
       <c r="M80" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N80" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>./plots/full_face/history_79.png</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_79.png</t>
         </is>
       </c>
     </row>
@@ -5454,14 +6338,25 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>62.00000047683716</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M81" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>./plots/full_face/history_80.png</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_80.png</t>
         </is>
       </c>
     </row>
@@ -5516,14 +6411,25 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>75.99999904632568</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M82" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N82" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>./plots/full_face/history_81.png</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_81.png</t>
         </is>
       </c>
     </row>
@@ -5578,14 +6484,25 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>77.99999713897705</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M83" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>./plots/full_face/history_82.png</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_82.png</t>
         </is>
       </c>
     </row>
@@ -5640,14 +6557,25 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>58.99999737739563</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M84" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N84" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>./plots/full_face/history_83.png</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_83.png</t>
         </is>
       </c>
     </row>
@@ -5702,14 +6630,25 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>69.9999988079071</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M85" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N85" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>./plots/full_face/history_84.png</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_84.png</t>
         </is>
       </c>
     </row>
@@ -5764,14 +6703,25 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>66.00000262260437</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M86" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N86" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>./plots/full_face/history_85.png</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_85.png</t>
         </is>
       </c>
     </row>
@@ -5826,14 +6776,25 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>57.99999833106995</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M87" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N87" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>./plots/full_face/history_86.png</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_86.png</t>
         </is>
       </c>
     </row>
@@ -5893,9 +6854,20 @@
       <c r="M88" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N88" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>./plots/full_face/history_87.png</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_87.png</t>
         </is>
       </c>
     </row>
@@ -5950,14 +6922,25 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>62.00000047683716</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M89" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="N89" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>./plots/full_face/history_88.png</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_88.png</t>
         </is>
       </c>
     </row>
@@ -6012,14 +6995,25 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>61.00000143051147</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M90" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="N90" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>./plots/full_face/history_89.png</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_89.png</t>
         </is>
       </c>
     </row>
@@ -6074,14 +7068,25 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>56.99999928474426</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M91" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="N91" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>./plots/full_face/history_90.png</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_90.png</t>
         </is>
       </c>
     </row>
@@ -6136,14 +7141,25 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>68.00000071525574</v>
+        <v>83.99999737739563</v>
       </c>
       <c r="M92" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="N92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P92" t="inlineStr">
         <is>
           <t>./plots/full_face/history_91.png</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_91.png</t>
         </is>
       </c>
     </row>
@@ -6198,14 +7214,25 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>81.99999928474426</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M93" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="N93" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>./plots/full_face/history_92.png</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_92.png</t>
         </is>
       </c>
     </row>
@@ -6260,14 +7287,25 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>54.00000214576721</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M94" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>./plots/full_face/history_93.png</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_93.png</t>
         </is>
       </c>
     </row>
@@ -6322,14 +7360,25 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>72.00000286102295</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M95" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="N95" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>./plots/full_face/history_94.png</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_94.png</t>
         </is>
       </c>
     </row>
@@ -6384,14 +7433,25 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>76.99999809265137</v>
+        <v>83.99999737739563</v>
       </c>
       <c r="M96" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="N96" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>./plots/full_face/history_95.png</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_95.png</t>
         </is>
       </c>
     </row>
@@ -6446,14 +7506,25 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>79.00000214576721</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M97" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P97" t="inlineStr">
         <is>
           <t>./plots/full_face/history_96.png</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>./plots/full_face/cm/confusion_matrix_96.png</t>
         </is>
       </c>
     </row>

--- a/DriverDrowsiness/results/output_ff.xlsx
+++ b/DriverDrowsiness/results/output_ff.xlsx
@@ -571,20 +571,20 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>68.99999976158142</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M2" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N2" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="O2" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_1.png</t>
+          <t>./plots/full_face/hist/history_1.png</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -644,20 +644,20 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>68.99999976158142</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M3" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="O3" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_2.png</t>
+          <t>./plots/full_face/hist/history_2.png</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -717,20 +717,20 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>50</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M4" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_3.png</t>
+          <t>./plots/full_face/hist/history_3.png</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -790,20 +790,20 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>75</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M5" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N5" t="n">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="O5" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_4.png</t>
+          <t>./plots/full_face/hist/history_4.png</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -863,20 +863,20 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>74.00000095367432</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M6" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N6" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="O6" t="n">
-        <v>0.72</v>
+        <v>0.98</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_5.png</t>
+          <t>./plots/full_face/hist/history_5.png</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -936,20 +936,20 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>50</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M7" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_6.png</t>
+          <t>./plots/full_face/hist/history_6.png</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1009,20 +1009,20 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>58.99999737739563</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M8" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="O8" t="n">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_7.png</t>
+          <t>./plots/full_face/hist/history_7.png</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1082,20 +1082,20 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>83.99999737739563</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M9" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="N9" t="n">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="O9" t="n">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_8.png</t>
+          <t>./plots/full_face/hist/history_8.png</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1155,20 +1155,20 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>80.0000011920929</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M10" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="N10" t="n">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="O10" t="n">
-        <v>0.58</v>
+        <v>0.98</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_9.png</t>
+          <t>./plots/full_face/hist/history_9.png</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1228,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>56.00000023841858</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M11" t="n">
         <v>1.617740631103516</v>
@@ -1237,11 +1237,11 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_10.png</t>
+          <t>./plots/full_face/hist/history_10.png</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1301,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>73.00000190734863</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M12" t="n">
         <v>1.617740631103516</v>
@@ -1310,11 +1310,11 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_11.png</t>
+          <t>./plots/full_face/hist/history_11.png</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1374,20 +1374,20 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>69.9999988079071</v>
+        <v>54.00000214576721</v>
       </c>
       <c r="M13" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O13" t="n">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_12.png</t>
+          <t>./plots/full_face/hist/history_12.png</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1447,20 +1447,20 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>72.00000286102295</v>
+        <v>83.99999737739563</v>
       </c>
       <c r="M14" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O14" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_13.png</t>
+          <t>./plots/full_face/hist/history_13.png</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1520,20 +1520,20 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>75</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M15" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O15" t="n">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_14.png</t>
+          <t>./plots/full_face/hist/history_14.png</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1593,20 +1593,20 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>69.9999988079071</v>
+        <v>50</v>
       </c>
       <c r="M16" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_15.png</t>
+          <t>./plots/full_face/hist/history_15.png</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1666,20 +1666,20 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>82.99999833106995</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M17" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N17" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_16.png</t>
+          <t>./plots/full_face/hist/history_16.png</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1739,20 +1739,20 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>85.00000238418579</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M18" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N18" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="O18" t="n">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_17.png</t>
+          <t>./plots/full_face/hist/history_17.png</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1812,20 +1812,20 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>82.99999833106995</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M19" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N19" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_18.png</t>
+          <t>./plots/full_face/hist/history_18.png</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -1885,20 +1885,20 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>66.00000262260437</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M20" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O20" t="n">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_19.png</t>
+          <t>./plots/full_face/hist/history_19.png</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -1958,7 +1958,7 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>67.00000166893005</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M21" t="n">
         <v>1.599185943603516</v>
@@ -1967,11 +1967,11 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0.26</v>
+        <v>0.66</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_20.png</t>
+          <t>./plots/full_face/hist/history_20.png</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2031,20 +2031,20 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>64.99999761581421</v>
+        <v>75</v>
       </c>
       <c r="M22" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O22" t="n">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_21.png</t>
+          <t>./plots/full_face/hist/history_21.png</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2104,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>66.00000262260437</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M23" t="n">
         <v>1.599185943603516</v>
@@ -2113,11 +2113,11 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_22.png</t>
+          <t>./plots/full_face/hist/history_22.png</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2177,20 +2177,20 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>76.99999809265137</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M24" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="N24" t="n">
-        <v>0.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_23.png</t>
+          <t>./plots/full_face/hist/history_23.png</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2250,20 +2250,20 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>81.00000023841858</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M25" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="N25" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="O25" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_24.png</t>
+          <t>./plots/full_face/hist/history_24.png</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2323,20 +2323,20 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>75.99999904632568</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M26" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="N26" t="n">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_25.png</t>
+          <t>./plots/full_face/hist/history_25.png</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2396,7 +2396,7 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>60.00000238418579</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M27" t="n">
         <v>1.621250152587891</v>
@@ -2405,11 +2405,11 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_26.png</t>
+          <t>./plots/full_face/hist/history_26.png</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2469,20 +2469,20 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>52.99999713897705</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M28" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="N28" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="O28" t="n">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_27.png</t>
+          <t>./plots/full_face/hist/history_27.png</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2542,20 +2542,20 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>77.99999713897705</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M29" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="N29" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O29" t="n">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_28.png</t>
+          <t>./plots/full_face/hist/history_28.png</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>72.00000286102295</v>
+        <v>50</v>
       </c>
       <c r="M30" t="n">
         <v>1.621250152587891</v>
@@ -2624,11 +2624,11 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_29.png</t>
+          <t>./plots/full_face/hist/history_29.png</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2688,20 +2688,20 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>64.99999761581421</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M31" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="N31" t="n">
-        <v>0.86</v>
+        <v>0.32</v>
       </c>
       <c r="O31" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_30.png</t>
+          <t>./plots/full_face/hist/history_30.png</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2761,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>56.99999928474426</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M32" t="n">
         <v>0.8241310119628906</v>
@@ -2770,11 +2770,11 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_31.png</t>
+          <t>./plots/full_face/hist/history_31.png</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2834,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>50</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M33" t="n">
         <v>0.8241310119628906</v>
@@ -2843,11 +2843,11 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_32.png</t>
+          <t>./plots/full_face/hist/history_32.png</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2907,20 +2907,20 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>67.00000166893005</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M34" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="N34" t="n">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
       <c r="O34" t="n">
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_33.png</t>
+          <t>./plots/full_face/hist/history_33.png</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2980,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>72.00000286102295</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M35" t="n">
         <v>0.8241310119628906</v>
@@ -2989,11 +2989,11 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_34.png</t>
+          <t>./plots/full_face/hist/history_34.png</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3053,20 +3053,20 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>64.99999761581421</v>
+        <v>49.00000095367432</v>
       </c>
       <c r="M36" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O36" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_35.png</t>
+          <t>./plots/full_face/hist/history_35.png</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3132,14 +3132,14 @@
         <v>0.8241310119628906</v>
       </c>
       <c r="N37" t="n">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="O37" t="n">
-        <v>0.88</v>
+        <v>0.34</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_36.png</t>
+          <t>./plots/full_face/hist/history_36.png</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3199,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>76.99999809265137</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="M38" t="n">
         <v>1.610507965087891</v>
@@ -3208,11 +3208,11 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_37.png</t>
+          <t>./plots/full_face/hist/history_37.png</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3272,20 +3272,20 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>70.99999785423279</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M39" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N39" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="O39" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_38.png</t>
+          <t>./plots/full_face/hist/history_38.png</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3345,20 +3345,20 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>50</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M40" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N40" t="n">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0.92</v>
+        <v>0.1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_39.png</t>
+          <t>./plots/full_face/hist/history_39.png</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3418,20 +3418,20 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>74.00000095367432</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="M41" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O41" t="n">
-        <v>0.28</v>
+        <v>0.9</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_40.png</t>
+          <t>./plots/full_face/hist/history_40.png</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3491,20 +3491,20 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>76.99999809265137</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M42" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="O42" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_41.png</t>
+          <t>./plots/full_face/hist/history_41.png</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3564,20 +3564,20 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>66.00000262260437</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M43" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_42.png</t>
+          <t>./plots/full_face/hist/history_42.png</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3637,20 +3637,20 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>58.99999737739563</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M44" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="N44" t="n">
-        <v>0.22</v>
+        <v>0.82</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_43.png</t>
+          <t>./plots/full_face/hist/history_43.png</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3710,20 +3710,20 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>81.99999928474426</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M45" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="N45" t="n">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_44.png</t>
+          <t>./plots/full_face/hist/history_44.png</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -3783,20 +3783,20 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>62.00000047683716</v>
+        <v>62.99999952316284</v>
       </c>
       <c r="M46" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="N46" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O46" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="O46" t="n">
-        <v>0.28</v>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_45.png</t>
+          <t>./plots/full_face/hist/history_45.png</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -3856,20 +3856,20 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>56.00000023841858</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M47" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="N47" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_46.png</t>
+          <t>./plots/full_face/hist/history_46.png</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -3929,20 +3929,20 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>79.00000214576721</v>
+        <v>55.0000011920929</v>
       </c>
       <c r="M48" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="N48" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="O48" t="n">
-        <v>0.66</v>
+        <v>0.16</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_47.png</t>
+          <t>./plots/full_face/hist/history_47.png</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4002,7 +4002,7 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>58.99999737739563</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M49" t="n">
         <v>0.8133888244628906</v>
@@ -4011,11 +4011,11 @@
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_48.png</t>
+          <t>./plots/full_face/hist/history_48.png</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4075,7 +4075,7 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>80.0000011920929</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M50" t="n">
         <v>3.181461334228516</v>
@@ -4084,11 +4084,11 @@
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_49.png</t>
+          <t>./plots/full_face/hist/history_49.png</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>56.99999928474426</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M51" t="n">
         <v>3.181461334228516</v>
@@ -4157,11 +4157,11 @@
         <v>0.9</v>
       </c>
       <c r="O51" t="n">
-        <v>0.16</v>
+        <v>0.86</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_50.png</t>
+          <t>./plots/full_face/hist/history_50.png</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4221,20 +4221,20 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>56.99999928474426</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M52" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O52" t="n">
         <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_51.png</t>
+          <t>./plots/full_face/hist/history_51.png</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4294,20 +4294,20 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>58.99999737739563</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M53" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N53" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="O53" t="n">
-        <v>0.14</v>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_52.png</t>
+          <t>./plots/full_face/hist/history_52.png</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4367,20 +4367,20 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>68.99999976158142</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M54" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N54" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_53.png</t>
+          <t>./plots/full_face/hist/history_53.png</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -4440,20 +4440,20 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>77.99999713897705</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M55" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N55" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="O55" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_54.png</t>
+          <t>./plots/full_face/hist/history_54.png</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4513,20 +4513,20 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>79.00000214576721</v>
+        <v>87.99999952316284</v>
       </c>
       <c r="M56" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="N56" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O56" t="n">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_55.png</t>
+          <t>./plots/full_face/hist/history_55.png</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -4586,7 +4586,7 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>82.99999833106995</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M57" t="n">
         <v>1.603092193603516</v>
@@ -4595,11 +4595,11 @@
         <v>0.98</v>
       </c>
       <c r="O57" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_56.png</t>
+          <t>./plots/full_face/hist/history_56.png</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -4659,7 +4659,7 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>67.00000166893005</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M58" t="n">
         <v>1.603092193603516</v>
@@ -4668,11 +4668,11 @@
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_57.png</t>
+          <t>./plots/full_face/hist/history_57.png</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -4732,20 +4732,20 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>79.00000214576721</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M59" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="N59" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O59" t="n">
-        <v>0.7</v>
+        <v>0.58</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_58.png</t>
+          <t>./plots/full_face/hist/history_58.png</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -4805,7 +4805,7 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>67.00000166893005</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M60" t="n">
         <v>1.603092193603516</v>
@@ -4814,11 +4814,11 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_59.png</t>
+          <t>./plots/full_face/hist/history_59.png</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -4878,20 +4878,20 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>52.99999713897705</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M61" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_60.png</t>
+          <t>./plots/full_face/hist/history_60.png</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -4951,20 +4951,20 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>74.00000095367432</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M62" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N62" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="O62" t="n">
         <v>1</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_61.png</t>
+          <t>./plots/full_face/hist/history_61.png</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5024,20 +5024,20 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>58.99999737739563</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M63" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N63" t="n">
-        <v>0.22</v>
+        <v>0.62</v>
       </c>
       <c r="O63" t="n">
         <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_62.png</t>
+          <t>./plots/full_face/hist/history_62.png</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5097,20 +5097,20 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>50</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M64" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N64" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="O64" t="n">
         <v>1</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_63.png</t>
+          <t>./plots/full_face/hist/history_63.png</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5170,20 +5170,20 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>61.00000143051147</v>
+        <v>66.00000262260437</v>
       </c>
       <c r="M65" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N65" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="O65" t="n">
         <v>1</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_64.png</t>
+          <t>./plots/full_face/hist/history_64.png</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5243,20 +5243,20 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>62.00000047683716</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M66" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N66" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="O66" t="n">
         <v>1</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_65.png</t>
+          <t>./plots/full_face/hist/history_65.png</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -5316,20 +5316,20 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>63.99999856948853</v>
+        <v>60.00000238418579</v>
       </c>
       <c r="M67" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N67" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="O67" t="n">
         <v>1</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_66.png</t>
+          <t>./plots/full_face/hist/history_66.png</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -5389,20 +5389,20 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>63.99999856948853</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M68" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N68" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="O68" t="n">
         <v>1</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_67.png</t>
+          <t>./plots/full_face/hist/history_67.png</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -5462,20 +5462,20 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>81.99999928474426</v>
+        <v>87.99999952316284</v>
       </c>
       <c r="M69" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N69" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_68.png</t>
+          <t>./plots/full_face/hist/history_68.png</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -5535,20 +5535,20 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>85.00000238418579</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M70" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N70" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O70" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_69.png</t>
+          <t>./plots/full_face/hist/history_69.png</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -5608,20 +5608,20 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>57.99999833106995</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M71" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="O71" t="n">
         <v>1</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_70.png</t>
+          <t>./plots/full_face/hist/history_70.png</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -5681,20 +5681,20 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>85.00000238418579</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M72" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N72" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="O72" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_71.png</t>
+          <t>./plots/full_face/hist/history_71.png</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -5754,20 +5754,20 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>79.00000214576721</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M73" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N73" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O73" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_72.png</t>
+          <t>./plots/full_face/hist/history_72.png</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -5827,20 +5827,20 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>76.99999809265137</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M74" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N74" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="O74" t="n">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_73.png</t>
+          <t>./plots/full_face/hist/history_73.png</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -5900,20 +5900,20 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>68.99999976158142</v>
+        <v>62.99999952316284</v>
       </c>
       <c r="M75" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N75" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="O75" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_74.png</t>
+          <t>./plots/full_face/hist/history_74.png</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -5973,20 +5973,20 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>63.99999856948853</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M76" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N76" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
       <c r="O76" t="n">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_75.png</t>
+          <t>./plots/full_face/hist/history_75.png</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -6046,20 +6046,20 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>50.99999904632568</v>
+        <v>68.00000071525574</v>
       </c>
       <c r="M77" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_76.png</t>
+          <t>./plots/full_face/hist/history_76.png</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6119,20 +6119,20 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>51.99999809265137</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M78" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04</v>
+        <v>0.82</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_77.png</t>
+          <t>./plots/full_face/hist/history_77.png</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -6192,7 +6192,7 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>75</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M79" t="n">
         <v>1.612705230712891</v>
@@ -6201,11 +6201,11 @@
         <v>0.6</v>
       </c>
       <c r="O79" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_78.png</t>
+          <t>./plots/full_face/hist/history_78.png</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -6265,20 +6265,20 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>75</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M80" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="N80" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_79.png</t>
+          <t>./plots/full_face/hist/history_79.png</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6338,20 +6338,20 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>73.00000190734863</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M81" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O81" t="n">
-        <v>0.48</v>
+        <v>0.86</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_80.png</t>
+          <t>./plots/full_face/hist/history_80.png</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -6411,20 +6411,20 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>70.99999785423279</v>
+        <v>50</v>
       </c>
       <c r="M82" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="N82" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_81.png</t>
+          <t>./plots/full_face/hist/history_81.png</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -6484,7 +6484,7 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>68.99999976158142</v>
+        <v>50</v>
       </c>
       <c r="M83" t="n">
         <v>0.8155860900878906</v>
@@ -6493,11 +6493,11 @@
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_82.png</t>
+          <t>./plots/full_face/hist/history_82.png</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -6557,20 +6557,20 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>75.99999904632568</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M84" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="N84" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="O84" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_83.png</t>
+          <t>./plots/full_face/hist/history_83.png</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -6630,20 +6630,20 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>75.99999904632568</v>
+        <v>68.00000071525574</v>
       </c>
       <c r="M85" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="N85" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="O85" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_84.png</t>
+          <t>./plots/full_face/hist/history_84.png</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -6703,20 +6703,20 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>73.00000190734863</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M86" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N86" t="n">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="O86" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_85.png</t>
+          <t>./plots/full_face/hist/history_85.png</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -6776,20 +6776,20 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>80.0000011920929</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M87" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N87" t="n">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="O87" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_86.png</t>
+          <t>./plots/full_face/hist/history_86.png</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -6855,14 +6855,14 @@
         <v>1.607334136962891</v>
       </c>
       <c r="N88" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="O88" t="n">
         <v>1</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_87.png</t>
+          <t>./plots/full_face/hist/history_87.png</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -6922,20 +6922,20 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>68.99999976158142</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M89" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N89" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
       <c r="O89" t="n">
         <v>1</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_88.png</t>
+          <t>./plots/full_face/hist/history_88.png</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -6995,20 +6995,20 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>82.99999833106995</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M90" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N90" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
       <c r="O90" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_89.png</t>
+          <t>./plots/full_face/hist/history_89.png</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -7068,20 +7068,20 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>67.00000166893005</v>
+        <v>87.99999952316284</v>
       </c>
       <c r="M91" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N91" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="O91" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_90.png</t>
+          <t>./plots/full_face/hist/history_90.png</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -7141,20 +7141,20 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>83.99999737739563</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M92" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O92" t="n">
-        <v>0.9</v>
+        <v>0.66</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_91.png</t>
+          <t>./plots/full_face/hist/history_91.png</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -7214,20 +7214,20 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>80.0000011920929</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M93" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="N93" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="O93" t="n">
-        <v>0.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_92.png</t>
+          <t>./plots/full_face/hist/history_92.png</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -7287,20 +7287,20 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>69.9999988079071</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M94" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O94" t="n">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_93.png</t>
+          <t>./plots/full_face/hist/history_93.png</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -7360,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>75.99999904632568</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M95" t="n">
         <v>0.8102149963378906</v>
@@ -7369,11 +7369,11 @@
         <v>0.84</v>
       </c>
       <c r="O95" t="n">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_94.png</t>
+          <t>./plots/full_face/hist/history_94.png</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -7433,20 +7433,20 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>83.99999737739563</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M96" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="N96" t="n">
-        <v>0.96</v>
+        <v>0.76</v>
       </c>
       <c r="O96" t="n">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_95.png</t>
+          <t>./plots/full_face/hist/history_95.png</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -7506,20 +7506,20 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>76.99999809265137</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M97" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O97" t="n">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>./plots/full_face/history_96.png</t>
+          <t>./plots/full_face/hist/history_96.png</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">

--- a/DriverDrowsiness/results/output_ff.xlsx
+++ b/DriverDrowsiness/results/output_ff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,30 +491,25 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Test Accuracy</t>
+          <t>Train Accuracy</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Validation Accuracy</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Model Size</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Recall Drowsy</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Recall Non-Drowsy</t>
+          <t>History Plot</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>History Plot</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Confusion Matrix</t>
         </is>
@@ -571,23 +566,20 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>79.00000214576721</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.78</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_1.png</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_1.png</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_1.png</t>
         </is>
@@ -644,23 +636,20 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>79.00000214576721</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M3" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.9</v>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_2.png</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_2.png</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_2.png</t>
         </is>
@@ -717,23 +706,20 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>57.99999833106995</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M4" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.38</v>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_3.png</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_3.png</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_3.png</t>
         </is>
@@ -790,23 +776,20 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>80.0000011920929</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.96</v>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_4.png</t>
+        </is>
       </c>
       <c r="P5" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_4.png</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_4.png</t>
         </is>
@@ -863,23 +846,20 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>77.99999713897705</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.98</v>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_5.png</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_5.png</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_5.png</t>
         </is>
@@ -936,23 +916,20 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M7" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.22</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_6.png</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_6.png</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_6.png</t>
         </is>
@@ -1009,23 +986,20 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>69.9999988079071</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="M8" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.74</v>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_7.png</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_7.png</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_7.png</t>
         </is>
@@ -1082,23 +1056,20 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>77.99999713897705</v>
+        <v>0.96875</v>
       </c>
       <c r="M9" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.5600000000000001</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_8.png</t>
+        </is>
       </c>
       <c r="P9" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_8.png</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_8.png</t>
         </is>
@@ -1155,23 +1126,20 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>63.99999856948853</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M10" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.98</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_9.png</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_9.png</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_9.png</t>
         </is>
@@ -1228,23 +1196,20 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.1</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_10.png</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_10.png</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_10.png</t>
         </is>
@@ -1301,23 +1266,20 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>52.99999713897705</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M12" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N12" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.04</v>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_11.png</t>
+        </is>
       </c>
       <c r="P12" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_11.png</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_11.png</t>
         </is>
@@ -1374,23 +1336,20 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>54.00000214576721</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.14</v>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_12.png</t>
+        </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_12.png</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_12.png</t>
         </is>
@@ -1447,23 +1406,20 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>83.99999737739563</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M14" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.88</v>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_13.png</t>
+        </is>
       </c>
       <c r="P14" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_13.png</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_13.png</t>
         </is>
@@ -1520,23 +1476,20 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.78</v>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_14.png</t>
+        </is>
       </c>
       <c r="P15" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_14.png</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_14.png</t>
         </is>
@@ -1593,23 +1546,20 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M16" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="N16" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_15.png</t>
+        </is>
       </c>
       <c r="P16" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_15.png</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_15.png</t>
         </is>
@@ -1666,23 +1616,20 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>73.00000190734863</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M17" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.44</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_16.png</t>
+        </is>
       </c>
       <c r="P17" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_16.png</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_16.png</t>
         </is>
@@ -1739,23 +1686,20 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M18" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.76</v>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_17.png</t>
+        </is>
       </c>
       <c r="P18" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_17.png</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_17.png</t>
         </is>
@@ -1812,23 +1756,20 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>75.99999904632568</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M19" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N19" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.98</v>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_18.png</t>
+        </is>
       </c>
       <c r="P19" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_18.png</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_18.png</t>
         </is>
@@ -1885,23 +1826,20 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M20" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N20" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.52</v>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_19.png</t>
+        </is>
       </c>
       <c r="P20" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_19.png</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_19.png</t>
         </is>
@@ -1958,23 +1896,20 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>85.00000238418579</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M21" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.66</v>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_20.png</t>
+        </is>
       </c>
       <c r="P21" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_20.png</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_20.png</t>
         </is>
@@ -2031,23 +1966,20 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>75</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M22" t="n">
+        <v>0.6166666746139526</v>
+      </c>
+      <c r="N22" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N22" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.84</v>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_21.png</t>
+        </is>
       </c>
       <c r="P22" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_21.png</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_21.png</t>
         </is>
@@ -2104,23 +2036,20 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M23" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N23" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.06</v>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_22.png</t>
+        </is>
       </c>
       <c r="P23" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_22.png</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_22.png</t>
         </is>
@@ -2177,23 +2106,20 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_23.png</t>
+        </is>
       </c>
       <c r="P24" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_23.png</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_23.png</t>
         </is>
@@ -2250,23 +2176,20 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M25" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.9</v>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_24.png</t>
+        </is>
       </c>
       <c r="P25" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_24.png</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_24.png</t>
         </is>
@@ -2323,23 +2246,20 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>68.99999976158142</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M26" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_25.png</t>
+        </is>
       </c>
       <c r="P26" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_25.png</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_25.png</t>
         </is>
@@ -2396,23 +2316,20 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>74.00000095367432</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M27" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.46</v>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_26.png</t>
+        </is>
       </c>
       <c r="P27" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_26.png</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_26.png</t>
         </is>
@@ -2469,23 +2386,20 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M28" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N28" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.9</v>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_27.png</t>
+        </is>
       </c>
       <c r="P28" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_27.png</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_27.png</t>
         </is>
@@ -2542,23 +2456,20 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>80.0000011920929</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M29" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.64</v>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_28.png</t>
+        </is>
       </c>
       <c r="P29" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_28.png</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_28.png</t>
         </is>
@@ -2615,23 +2526,20 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>50</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M30" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N30" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N30" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_29.png</t>
+        </is>
       </c>
       <c r="P30" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_29.png</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_29.png</t>
         </is>
@@ -2688,23 +2596,20 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>63.99999856948853</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M31" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N31" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_30.png</t>
+        </is>
       </c>
       <c r="P31" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_30.png</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_30.png</t>
         </is>
@@ -2761,23 +2666,20 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>51.99999809265137</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M32" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.02</v>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_31.png</t>
+        </is>
       </c>
       <c r="P32" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_31.png</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_31.png</t>
         </is>
@@ -2834,23 +2736,20 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>50.99999904632568</v>
+        <v>0.9604166746139526</v>
       </c>
       <c r="M33" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.02</v>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_32.png</t>
+        </is>
       </c>
       <c r="P33" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_32.png</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_32.png</t>
         </is>
@@ -2907,23 +2806,20 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M34" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N34" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.88</v>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_33.png</t>
+        </is>
       </c>
       <c r="P34" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_33.png</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_33.png</t>
         </is>
@@ -2980,23 +2876,20 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>52.99999713897705</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M35" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.04</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_34.png</t>
+        </is>
       </c>
       <c r="P35" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_34.png</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_34.png</t>
         </is>
@@ -3053,23 +2946,20 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>49.00000095367432</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M36" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.02</v>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_35.png</t>
+        </is>
       </c>
       <c r="P36" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_35.png</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_35.png</t>
         </is>
@@ -3126,23 +3016,20 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>74.00000095367432</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M37" t="n">
+        <v>0.8333333134651184</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N37" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.34</v>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_36.png</t>
+        </is>
       </c>
       <c r="P37" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_36.png</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_36.png</t>
         </is>
@@ -3199,23 +3086,20 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>91.00000262260437</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M38" t="n">
+        <v>0.8166666626930237</v>
+      </c>
+      <c r="N38" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.66</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_37.png</t>
+        </is>
       </c>
       <c r="P38" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_37.png</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_37.png</t>
         </is>
@@ -3272,23 +3156,20 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M39" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N39" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.86</v>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_38.png</t>
+        </is>
       </c>
       <c r="P39" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_38.png</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_38.png</t>
         </is>
@@ -3345,23 +3226,20 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>73.00000190734863</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M40" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.1</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_39.png</t>
+        </is>
       </c>
       <c r="P40" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_39.png</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_39.png</t>
         </is>
@@ -3418,23 +3296,20 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>91.00000262260437</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M41" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N41" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.9</v>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_40.png</t>
+        </is>
       </c>
       <c r="P41" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_40.png</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_40.png</t>
         </is>
@@ -3491,23 +3366,20 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M42" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.82</v>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_41.png</t>
+        </is>
       </c>
       <c r="P42" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_41.png</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_41.png</t>
         </is>
@@ -3564,23 +3436,20 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>76.99999809265137</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M43" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N43" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N43" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.58</v>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_42.png</t>
+        </is>
       </c>
       <c r="P43" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_42.png</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_42.png</t>
         </is>
@@ -3637,23 +3506,20 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>86.00000143051147</v>
+        <v>0.9604166746139526</v>
       </c>
       <c r="M44" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N44" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.84</v>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_43.png</t>
+        </is>
       </c>
       <c r="P44" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_43.png</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_43.png</t>
         </is>
@@ -3710,23 +3576,20 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M45" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N45" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.46</v>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_44.png</t>
+        </is>
       </c>
       <c r="P45" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_44.png</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_44.png</t>
         </is>
@@ -3783,23 +3646,20 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>62.99999952316284</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N46" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0.9399999999999999</v>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_45.png</t>
+        </is>
       </c>
       <c r="P46" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_45.png</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_45.png</t>
         </is>
@@ -3856,23 +3716,20 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M47" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N47" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.84</v>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_46.png</t>
+        </is>
       </c>
       <c r="P47" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_46.png</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_46.png</t>
         </is>
@@ -3929,23 +3786,20 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>55.0000011920929</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M48" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N48" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.16</v>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_47.png</t>
+        </is>
       </c>
       <c r="P48" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_47.png</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_47.png</t>
         </is>
@@ -4002,23 +3856,20 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>68.99999976158142</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M49" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.14</v>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_48.png</t>
+        </is>
       </c>
       <c r="P49" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_48.png</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_48.png</t>
         </is>
@@ -4075,23 +3926,20 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M50" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N50" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.12</v>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_49.png</t>
+        </is>
       </c>
       <c r="P50" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_49.png</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_49.png</t>
         </is>
@@ -4148,23 +3996,20 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>85.00000238418579</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N51" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.86</v>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_50.png</t>
+        </is>
       </c>
       <c r="P51" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_50.png</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_50.png</t>
         </is>
@@ -4221,23 +4066,20 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>58.99999737739563</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M52" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N52" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N52" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1</v>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_51.png</t>
+        </is>
       </c>
       <c r="P52" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_51.png</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_51.png</t>
         </is>
@@ -4294,23 +4136,20 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>72.00000286102295</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M53" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N53" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N53" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1</v>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_52.png</t>
+        </is>
       </c>
       <c r="P53" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_52.png</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_52.png</t>
         </is>
@@ -4367,23 +4206,20 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>72.00000286102295</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M54" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="N54" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.26</v>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_53.png</t>
+        </is>
       </c>
       <c r="P54" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_53.png</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_53.png</t>
         </is>
@@ -4440,23 +4276,20 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>81.99999928474426</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M55" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N55" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N55" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.9399999999999999</v>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_54.png</t>
+        </is>
       </c>
       <c r="P55" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_54.png</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_54.png</t>
         </is>
@@ -4513,23 +4346,20 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>87.99999952316284</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M56" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N56" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N56" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.86</v>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_55.png</t>
+        </is>
       </c>
       <c r="P56" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_55.png</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_55.png</t>
         </is>
@@ -4586,23 +4416,20 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M57" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N57" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N57" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.12</v>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_56.png</t>
+        </is>
       </c>
       <c r="P57" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_56.png</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_56.png</t>
         </is>
@@ -4659,23 +4486,20 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_57.png</t>
+        </is>
       </c>
       <c r="P58" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_57.png</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_57.png</t>
         </is>
@@ -4732,23 +4556,20 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M59" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N59" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N59" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.58</v>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_58.png</t>
+        </is>
       </c>
       <c r="P59" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_58.png</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_58.png</t>
         </is>
@@ -4805,23 +4626,20 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>50.99999904632568</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M60" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N60" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.02</v>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_59.png</t>
+        </is>
       </c>
       <c r="P60" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_59.png</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_59.png</t>
         </is>
@@ -4878,23 +4696,20 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N61" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.6</v>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_60.png</t>
+        </is>
       </c>
       <c r="P61" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_60.png</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_60.png</t>
         </is>
@@ -4951,23 +4766,20 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>70.99999785423279</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M62" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N62" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1</v>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_61.png</t>
+        </is>
       </c>
       <c r="P62" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_61.png</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_61.png</t>
         </is>
@@ -5024,23 +4836,20 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M63" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N63" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N63" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_62.png</t>
+        </is>
       </c>
       <c r="P63" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_62.png</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_62.png</t>
         </is>
@@ -5097,23 +4906,20 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>50.99999904632568</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M64" t="n">
+        <v>0.6166666746139526</v>
+      </c>
+      <c r="N64" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N64" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1</v>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_63.png</t>
+        </is>
       </c>
       <c r="P64" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_63.png</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_63.png</t>
         </is>
@@ -5170,23 +4976,20 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>66.00000262260437</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M65" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N65" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N65" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_64.png</t>
+        </is>
       </c>
       <c r="P65" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_64.png</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_64.png</t>
         </is>
@@ -5243,23 +5046,20 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>63.99999856948853</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M66" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N66" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N66" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1</v>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_65.png</t>
+        </is>
       </c>
       <c r="P66" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_65.png</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_65.png</t>
         </is>
@@ -5316,23 +5116,20 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>60.00000238418579</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M67" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N67" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N67" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1</v>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_66.png</t>
+        </is>
       </c>
       <c r="P67" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_66.png</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_66.png</t>
         </is>
@@ -5389,23 +5186,20 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>68.99999976158142</v>
+        <v>0.9604166746139526</v>
       </c>
       <c r="M68" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N68" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1</v>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_67.png</t>
+        </is>
       </c>
       <c r="P68" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_67.png</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_67.png</t>
         </is>
@@ -5462,23 +5256,20 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>87.99999952316284</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M69" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N69" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N69" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.8</v>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_68.png</t>
+        </is>
       </c>
       <c r="P69" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_68.png</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_68.png</t>
         </is>
@@ -5535,23 +5326,20 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>86.00000143051147</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M70" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N70" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N70" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.66</v>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_69.png</t>
+        </is>
       </c>
       <c r="P70" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_69.png</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_69.png</t>
         </is>
@@ -5608,23 +5396,20 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>56.00000023841858</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M71" t="n">
+        <v>0.8333333134651184</v>
+      </c>
+      <c r="N71" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N71" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1</v>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_70.png</t>
+        </is>
       </c>
       <c r="P71" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_70.png</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_70.png</t>
         </is>
@@ -5681,23 +5466,20 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>82.99999833106995</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M72" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N72" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N72" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.84</v>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_71.png</t>
+        </is>
       </c>
       <c r="P72" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_71.png</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_71.png</t>
         </is>
@@ -5754,23 +5536,20 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>69.9999988079071</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M73" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N73" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N73" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.44</v>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_72.png</t>
+        </is>
       </c>
       <c r="P73" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_72.png</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_72.png</t>
         </is>
@@ -5827,23 +5606,20 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>79.00000214576721</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M74" t="n">
+        <v>0.8166666626930237</v>
+      </c>
+      <c r="N74" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N74" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.86</v>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_73.png</t>
+        </is>
       </c>
       <c r="P74" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_73.png</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_73.png</t>
         </is>
@@ -5900,23 +5676,20 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>62.99999952316284</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M75" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N75" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N75" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1</v>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_74.png</t>
+        </is>
       </c>
       <c r="P75" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_74.png</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_74.png</t>
         </is>
@@ -5973,23 +5746,20 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>56.99999928474426</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M76" t="n">
+        <v>0.8166666626930237</v>
+      </c>
+      <c r="N76" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N76" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.9399999999999999</v>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_75.png</t>
+        </is>
       </c>
       <c r="P76" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_75.png</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_75.png</t>
         </is>
@@ -6046,23 +5816,20 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>68.00000071525574</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M77" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N77" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N77" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.28</v>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_76.png</t>
+        </is>
       </c>
       <c r="P77" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_76.png</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_76.png</t>
         </is>
@@ -6119,23 +5886,20 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>85.00000238418579</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M78" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N78" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N78" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.88</v>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_77.png</t>
+        </is>
       </c>
       <c r="P78" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_77.png</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_77.png</t>
         </is>
@@ -6192,23 +5956,20 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>73.00000190734863</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M79" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N79" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N79" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.9</v>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_78.png</t>
+        </is>
       </c>
       <c r="P79" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_78.png</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_78.png</t>
         </is>
@@ -6265,23 +6026,20 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>56.99999928474426</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M80" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.12</v>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_79.png</t>
+        </is>
       </c>
       <c r="P80" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_79.png</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_79.png</t>
         </is>
@@ -6338,23 +6096,20 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>75.99999904632568</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M81" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N81" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.86</v>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_80.png</t>
+        </is>
       </c>
       <c r="P81" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_80.png</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_80.png</t>
         </is>
@@ -6411,23 +6166,20 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>50</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M82" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N82" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_81.png</t>
+        </is>
       </c>
       <c r="P82" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_81.png</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_81.png</t>
         </is>
@@ -6484,23 +6236,20 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>50</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_82.png</t>
+        </is>
       </c>
       <c r="P83" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_82.png</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_82.png</t>
         </is>
@@ -6557,23 +6306,20 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>79.00000214576721</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M84" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N84" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N84" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.9</v>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_83.png</t>
+        </is>
       </c>
       <c r="P84" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_83.png</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_83.png</t>
         </is>
@@ -6630,23 +6376,20 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>68.00000071525574</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M85" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N85" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.48</v>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_84.png</t>
+        </is>
       </c>
       <c r="P85" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_84.png</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_84.png</t>
         </is>
@@ -6703,23 +6446,20 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>67.00000166893005</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M86" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N86" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N86" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.92</v>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_85.png</t>
+        </is>
       </c>
       <c r="P86" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_85.png</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_85.png</t>
         </is>
@@ -6776,23 +6516,20 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>76.99999809265137</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M87" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N87" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N87" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.96</v>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_86.png</t>
+        </is>
       </c>
       <c r="P87" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_86.png</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_86.png</t>
         </is>
@@ -6849,23 +6586,20 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>51.99999809265137</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M88" t="n">
+        <v>0.6166666746139526</v>
+      </c>
+      <c r="N88" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N88" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1</v>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_87.png</t>
+        </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_87.png</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_87.png</t>
         </is>
@@ -6922,23 +6656,20 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>69.9999988079071</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M89" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N89" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N89" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1</v>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_88.png</t>
+        </is>
       </c>
       <c r="P89" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_88.png</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_88.png</t>
         </is>
@@ -6995,23 +6726,20 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>67.00000166893005</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M90" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N90" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N90" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1</v>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_89.png</t>
+        </is>
       </c>
       <c r="P90" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_89.png</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_89.png</t>
         </is>
@@ -7068,23 +6796,20 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>87.99999952316284</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M91" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N91" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N91" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.88</v>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_90.png</t>
+        </is>
       </c>
       <c r="P91" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_90.png</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_90.png</t>
         </is>
@@ -7141,23 +6866,20 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>77.99999713897705</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M92" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N92" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N92" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.66</v>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_91.png</t>
+        </is>
       </c>
       <c r="P92" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_91.png</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_91.png</t>
         </is>
@@ -7214,23 +6936,20 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>82.99999833106995</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M93" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N93" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N93" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.9399999999999999</v>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_92.png</t>
+        </is>
       </c>
       <c r="P93" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_92.png</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_92.png</t>
         </is>
@@ -7287,23 +7006,20 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>77.99999713897705</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M94" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N94" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N94" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.9</v>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_93.png</t>
+        </is>
       </c>
       <c r="P94" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_93.png</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_93.png</t>
         </is>
@@ -7360,23 +7076,20 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M95" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N95" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.88</v>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_94.png</t>
+        </is>
       </c>
       <c r="P95" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_94.png</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_94.png</t>
         </is>
@@ -7433,23 +7146,20 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>82.99999833106995</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N96" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.9399999999999999</v>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_95.png</t>
+        </is>
       </c>
       <c r="P96" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_95.png</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_95.png</t>
         </is>
@@ -7506,23 +7216,20 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M97" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N97" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N97" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.8</v>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_96.png</t>
+        </is>
       </c>
       <c r="P97" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_96.png</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_96.png</t>
         </is>

--- a/DriverDrowsiness/results/output_ff.xlsx
+++ b/DriverDrowsiness/results/output_ff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,15 +501,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Model Size</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Train Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Val Recall</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Drowsy Recall</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Drowsy Recall</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>History Plot</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Confusion Matrix</t>
         </is>
@@ -566,20 +591,35 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>72.00000286102295</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="n">
+        <v>0.9703390002250671</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_1.png</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_1.png</t>
         </is>
@@ -636,20 +676,35 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9708333611488342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>54.00000214576721</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_2.png</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_2.png</t>
         </is>
@@ -706,20 +761,35 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8666666746139526</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>41.99999868869781</v>
+      </c>
+      <c r="O4" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_3.png</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_3.png</t>
         </is>
@@ -776,20 +846,35 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74.00000095367432</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.196109771728516</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.196109771728516</v>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="R5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_4.png</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_4.png</t>
         </is>
@@ -846,20 +931,35 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>74.00000095367432</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.196109771728516</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.9833333492279053</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.196109771728516</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_5.png</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_5.png</t>
         </is>
@@ -916,20 +1016,35 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>89.99999761581421</v>
+      </c>
+      <c r="O7" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_6.png</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_6.png</t>
         </is>
@@ -986,20 +1101,35 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.550000011920929</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>100</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="n">
+        <v>0.9406779408454895</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_7.png</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_7.png</t>
         </is>
@@ -1056,20 +1186,35 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>0.96875</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>100</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="n">
+        <v>0.9703390002250671</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_8.png</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_8.png</t>
         </is>
@@ -1126,20 +1271,35 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>23.9999994635582</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_9.png</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_9.png</t>
         </is>
@@ -1196,20 +1356,35 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.617740631103516</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="n">
-        <v>1.617740631103516</v>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_10.png</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_10.png</t>
         </is>
@@ -1266,20 +1441,35 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>98.00000190734863</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_11.png</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_11.png</t>
         </is>
@@ -1336,20 +1526,35 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>87.99999952316284</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.617740631103516</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>1.617740631103516</v>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="R13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_12.png</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_12.png</t>
         </is>
@@ -1406,20 +1611,35 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>77.99999713897705</v>
+      </c>
+      <c r="O14" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="n">
+        <v>0.9618644118309021</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_13.png</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_13.png</t>
         </is>
@@ -1476,20 +1696,35 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>75.99999904632568</v>
+      </c>
+      <c r="O15" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_14.png</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_14.png</t>
         </is>
@@ -1546,20 +1781,35 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8500000238418579</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>3.999999910593033</v>
+      </c>
+      <c r="O16" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_15.png</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_15.png</t>
         </is>
@@ -1616,20 +1866,35 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>74.00000095367432</v>
+      </c>
+      <c r="O17" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_16.png</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_16.png</t>
         </is>
@@ -1686,20 +1951,35 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>68.00000071525574</v>
+      </c>
+      <c r="O18" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_17.png</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_17.png</t>
         </is>
@@ -1756,20 +2036,35 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8666666746139526</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>31.99999928474426</v>
+      </c>
+      <c r="O19" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_18.png</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_18.png</t>
         </is>
@@ -1826,20 +2121,35 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>100</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_19.png</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_19.png</t>
         </is>
@@ -1896,20 +2206,35 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9750000238418579</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>100</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_20.png</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_20.png</t>
         </is>
@@ -1966,20 +2291,35 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6166666746139526</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>86.00000143051147</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_21.png</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_21.png</t>
         </is>
@@ -2036,20 +2376,35 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9750000238418579</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>100</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="n">
+        <v>0.9533898234367371</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_22.png</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_22.png</t>
         </is>
@@ -2106,20 +2461,35 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>86.00000143051147</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_23.png</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_23.png</t>
         </is>
@@ -2176,20 +2546,35 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>43.99999976158142</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_24.png</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_24.png</t>
         </is>
@@ -2246,20 +2631,35 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>89.99999761581421</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="n">
+        <v>0.9703390002250671</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_25.png</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_25.png</t>
         </is>
@@ -2316,20 +2716,35 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>81.99999928474426</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_26.png</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_26.png</t>
         </is>
@@ -2386,20 +2801,35 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9937499761581421</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8833333253860474</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>41.99999868869781</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_27.png</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_27.png</t>
         </is>
@@ -2456,20 +2886,35 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>100</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="n">
+        <v>0.9703390002250671</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_28.png</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_28.png</t>
         </is>
@@ -2526,20 +2971,35 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>86.00000143051147</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_29.png</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_29.png</t>
         </is>
@@ -2596,20 +3056,35 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8833333253860474</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>69.9999988079071</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_30.png</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_30.png</t>
         </is>
@@ -2666,20 +3141,35 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9750000238418579</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>100</v>
+      </c>
+      <c r="O32" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_31.png</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_31.png</t>
         </is>
@@ -2736,20 +3226,35 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9604166746139526</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>100</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_32.png</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_32.png</t>
         </is>
@@ -2806,20 +3311,35 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9333333373069763</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>47.99999892711639</v>
+      </c>
+      <c r="O34" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_33.png</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_33.png</t>
         </is>
@@ -2876,20 +3396,35 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>0.981249988079071</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>100</v>
+      </c>
+      <c r="O35" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_34.png</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_34.png</t>
         </is>
@@ -2946,20 +3481,35 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>100</v>
+      </c>
+      <c r="O36" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_35.png</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_35.png</t>
         </is>
@@ -3016,20 +3566,35 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8333333134651184</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>100</v>
+      </c>
+      <c r="O37" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_36.png</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_36.png</t>
         </is>
@@ -3086,20 +3651,35 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8166666626930237</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>100</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_37.png</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_37.png</t>
         </is>
@@ -3156,20 +3736,35 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
+        <v>54.00000214576721</v>
+      </c>
+      <c r="O39" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_38.png</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_38.png</t>
         </is>
@@ -3226,20 +3821,35 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>86.00000143051147</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_39.png</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_39.png</t>
         </is>
@@ -3296,20 +3906,35 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>100</v>
+      </c>
+      <c r="O41" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_40.png</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_40.png</t>
         </is>
@@ -3366,20 +3991,35 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>54.00000214576721</v>
+      </c>
+      <c r="O42" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_41.png</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_41.png</t>
         </is>
@@ -3436,20 +4076,35 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9937499761581421</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>57.99999833106995</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T43" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_42.png</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_42.png</t>
         </is>
@@ -3506,20 +4161,35 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9604166746139526</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>11.9999997317791</v>
+      </c>
+      <c r="O44" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="n">
+        <v>0.9322034120559692</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_43.png</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_43.png</t>
         </is>
@@ -3576,20 +4246,35 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8666666746139526</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>87.99999952316284</v>
+      </c>
+      <c r="O45" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_44.png</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_44.png</t>
         </is>
@@ -3646,20 +4331,35 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>37.99999952316284</v>
+      </c>
+      <c r="O46" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_45.png</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_45.png</t>
         </is>
@@ -3716,20 +4416,35 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
+        <v>25.99999904632568</v>
+      </c>
+      <c r="O47" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="n">
+        <v>0.9576271176338196</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_46.png</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_46.png</t>
         </is>
@@ -3786,20 +4501,35 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>86.00000143051147</v>
+      </c>
+      <c r="O48" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_47.png</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_47.png</t>
         </is>
@@ -3856,20 +4586,35 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
+        <v>100</v>
+      </c>
+      <c r="O49" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_48.png</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_48.png</t>
         </is>
@@ -3926,20 +4671,35 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9750000238418579</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
+        <v>72.00000286102295</v>
+      </c>
+      <c r="O50" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T50" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_49.png</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_49.png</t>
         </is>
@@ -3996,20 +4756,35 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>95.99999785423279</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3.181461334228516</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="n">
-        <v>3.181461334228516</v>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="R51" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T51" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_50.png</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_50.png</t>
         </is>
@@ -4066,20 +4841,35 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="P52" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_51.png</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_51.png</t>
         </is>
@@ -4136,20 +4926,35 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
+        <v>68.00000071525574</v>
+      </c>
+      <c r="O53" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_52.png</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_52.png</t>
         </is>
@@ -4206,20 +5011,35 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.800000011920929</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
+        <v>54.00000214576721</v>
+      </c>
+      <c r="O54" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T54" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_53.png</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_53.png</t>
         </is>
@@ -4276,20 +5096,35 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
+        <v>25.99999904632568</v>
+      </c>
+      <c r="O55" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_54.png</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_54.png</t>
         </is>
@@ -4346,20 +5181,35 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>93.99999976158142</v>
+      </c>
+      <c r="O56" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_55.png</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_55.png</t>
         </is>
@@ -4416,20 +5266,35 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
+        <v>100</v>
+      </c>
+      <c r="O57" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T57" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_56.png</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_56.png</t>
         </is>
@@ -4486,20 +5351,35 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>98.00000190734863</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.603092193603516</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q58" t="n">
         <v>1</v>
       </c>
-      <c r="N58" t="n">
-        <v>1.603092193603516</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T58" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_57.png</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_57.png</t>
         </is>
@@ -4556,20 +5436,35 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
+        <v>77.99999713897705</v>
+      </c>
+      <c r="O59" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_58.png</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_58.png</t>
         </is>
@@ -4626,20 +5521,35 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9937499761581421</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.9333333373069763</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
+        <v>95.99999785423279</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T60" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_59.png</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_59.png</t>
         </is>
@@ -4696,20 +5606,35 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>87.99999952316284</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.603092193603516</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q61" t="n">
         <v>1</v>
       </c>
-      <c r="N61" t="n">
-        <v>1.603092193603516</v>
-      </c>
-      <c r="O61" t="inlineStr">
+      <c r="R61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T61" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_60.png</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_60.png</t>
         </is>
@@ -4766,20 +5691,35 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9708333611488342</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9166666865348816</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
+        <v>21.99999988079071</v>
+      </c>
+      <c r="O62" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_61.png</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_61.png</t>
         </is>
@@ -4836,20 +5776,35 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>15.99999964237213</v>
+      </c>
+      <c r="O63" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="n">
+        <v>0.9703390002250671</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_62.png</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_62.png</t>
         </is>
@@ -4906,20 +5861,35 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6166666746139526</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_63.png</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_63.png</t>
         </is>
@@ -4976,20 +5946,35 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.9333333373069763</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
+        <v>10.00000014901161</v>
+      </c>
+      <c r="O65" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_64.png</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_64.png</t>
         </is>
@@ -5046,20 +6031,35 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
+        <v>34.00000035762787</v>
+      </c>
+      <c r="O66" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_65.png</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_65.png</t>
         </is>
@@ -5116,20 +6116,35 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8833333253860474</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
+        <v>21.99999988079071</v>
+      </c>
+      <c r="O67" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_66.png</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_66.png</t>
         </is>
@@ -5186,20 +6201,35 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9604166746139526</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.9333333373069763</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>23.9999994635582</v>
+      </c>
+      <c r="O68" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="n">
+        <v>0.9703390002250671</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_67.png</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_67.png</t>
         </is>
@@ -5256,20 +6286,35 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
+        <v>100</v>
+      </c>
+      <c r="O69" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T69" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_68.png</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_68.png</t>
         </is>
@@ -5326,20 +6371,35 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
+        <v>89.99999761581421</v>
+      </c>
+      <c r="O70" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T70" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_69.png</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_69.png</t>
         </is>
@@ -5396,20 +6456,35 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.8333333134651184</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
+        <v>18.00000071525574</v>
+      </c>
+      <c r="O71" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_70.png</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_70.png</t>
         </is>
@@ -5466,20 +6541,35 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
+        <v>57.99999833106995</v>
+      </c>
+      <c r="O72" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T72" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_71.png</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_71.png</t>
         </is>
@@ -5536,20 +6626,35 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.8833333253860474</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
+        <v>95.99999785423279</v>
+      </c>
+      <c r="O73" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T73" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_72.png</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_72.png</t>
         </is>
@@ -5606,20 +6711,35 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>0.981249988079071</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.8166666626930237</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
+        <v>54.00000214576721</v>
+      </c>
+      <c r="O74" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T74" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_73.png</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_73.png</t>
         </is>
@@ -5676,20 +6796,35 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.8666666746139526</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
+        <v>36.00000143051147</v>
+      </c>
+      <c r="O75" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T75" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_74.png</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_74.png</t>
         </is>
@@ -5746,20 +6881,35 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.8166666626930237</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
+        <v>23.9999994635582</v>
+      </c>
+      <c r="O76" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T76" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_75.png</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_75.png</t>
         </is>
@@ -5816,20 +6966,35 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.8833333253860474</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
+        <v>31.99999928474426</v>
+      </c>
+      <c r="O77" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_76.png</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_76.png</t>
         </is>
@@ -5886,20 +7051,35 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9916666746139526</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9333333373069763</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>62.00000047683716</v>
+      </c>
+      <c r="O78" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T78" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_77.png</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_77.png</t>
         </is>
@@ -5956,20 +7136,35 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>0.987500011920929</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
+        <v>72.00000286102295</v>
+      </c>
+      <c r="O79" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="T79" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_78.png</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_78.png</t>
         </is>
@@ -6026,20 +7221,35 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9645833373069763</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
+        <v>80.0000011920929</v>
+      </c>
+      <c r="O80" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T80" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_79.png</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_79.png</t>
         </is>
@@ -6096,20 +7306,35 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9645833373069763</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.9166666865348816</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
+        <v>77.99999713897705</v>
+      </c>
+      <c r="O81" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="P81" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T81" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_80.png</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_80.png</t>
         </is>
@@ -6166,20 +7391,35 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
+        <v>74.00000095367432</v>
+      </c>
+      <c r="O82" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T82" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_81.png</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="U82" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_81.png</t>
         </is>
@@ -6236,20 +7476,35 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
+        <v>51.99999809265137</v>
+      </c>
+      <c r="O83" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="T83" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_82.png</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="U83" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_82.png</t>
         </is>
@@ -6306,20 +7561,35 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
+        <v>80.0000011920929</v>
+      </c>
+      <c r="O84" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="P84" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T84" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_83.png</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_83.png</t>
         </is>
@@ -6376,20 +7646,35 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
+        <v>95.99999785423279</v>
+      </c>
+      <c r="O85" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T85" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_84.png</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="U85" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_84.png</t>
         </is>
@@ -6446,20 +7731,35 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
+        <v>36.00000143051147</v>
+      </c>
+      <c r="O86" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="P86" t="n">
+        <v>0.9745762944221497</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_85.png</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="U86" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_85.png</t>
         </is>
@@ -6516,20 +7816,35 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.9666666388511658</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
+        <v>18.00000071525574</v>
+      </c>
+      <c r="O87" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="P87" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_86.png</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_86.png</t>
         </is>
@@ -6586,20 +7901,35 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6166666746139526</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
+        <v>20.00000029802322</v>
+      </c>
+      <c r="O88" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="P88" t="n">
+        <v>0.991525411605835</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T88" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_87.png</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_87.png</t>
         </is>
@@ -6656,20 +7986,35 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>0.981249988079071</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.9166666865348816</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
+        <v>11.9999997317791</v>
+      </c>
+      <c r="O89" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="n">
+        <v>0.9830508232116699</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_88.png</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_88.png</t>
         </is>
@@ -6726,20 +8071,35 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.9333333373069763</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
+        <v>31.99999928474426</v>
+      </c>
+      <c r="O90" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="P90" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_89.png</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="U90" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_89.png</t>
         </is>
@@ -6796,20 +8156,35 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
+        <v>77.99999713897705</v>
+      </c>
+      <c r="O91" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="P91" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T91" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_90.png</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="U91" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_90.png</t>
         </is>
@@ -6866,20 +8241,35 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9729166626930237</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
+        <v>63.99999856948853</v>
+      </c>
+      <c r="O92" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="P92" t="n">
+        <v>0.9661017060279846</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T92" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_91.png</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="U92" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_91.png</t>
         </is>
@@ -6936,20 +8326,35 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9791666865348816</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
+        <v>74.00000095367432</v>
+      </c>
+      <c r="O93" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="P93" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T93" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_92.png</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="U93" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_92.png</t>
         </is>
@@ -7006,20 +8411,35 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9854166507720947</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.949999988079071</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
+        <v>69.9999988079071</v>
+      </c>
+      <c r="O94" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="P94" t="n">
+        <v>0.9872881174087524</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T94" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_93.png</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="U94" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_93.png</t>
         </is>
@@ -7076,20 +8496,35 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9770833253860474</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
+        <v>51.99999809265137</v>
+      </c>
+      <c r="O95" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="P95" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T95" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_94.png</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_94.png</t>
         </is>
@@ -7146,20 +8581,35 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
+        <v>75.99999904632568</v>
+      </c>
+      <c r="O96" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="P96" t="n">
+        <v>0.9788135886192322</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T96" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_95.png</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_95.png</t>
         </is>
@@ -7216,20 +8666,35 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9895833134651184</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.9833333492279053</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
+        <v>83.99999737739563</v>
+      </c>
+      <c r="O97" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="P97" t="n">
+        <v>0.9957627058029175</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T97" t="inlineStr">
         <is>
           <t>./plots/full_face/hist/history_96.png</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="U97" t="inlineStr">
         <is>
           <t>./plots/full_face/cm/confusion_matrix_96.png</t>
         </is>

--- a/DriverDrowsiness/results/output_ff.xlsx
+++ b/DriverDrowsiness/results/output_ff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,42 +501,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Test Accuracy</t>
+          <t>Model Size</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Model Size</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Train Recall</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Val Recall</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Drowsy Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Non-Drowsy Recall</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
           <t>History Plot</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Confusion Matrix</t>
         </is>
       </c>
     </row>
@@ -591,37 +561,17 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N2" t="n">
-        <v>72.00000286102295</v>
-      </c>
-      <c r="O2" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.9703390002250671</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_1.png</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_1.png</t>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_0.png</t>
         </is>
       </c>
     </row>
@@ -676,37 +626,17 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N3" t="n">
-        <v>54.00000214576721</v>
-      </c>
-      <c r="O3" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_2.png</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_2.png</t>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_1.png</t>
         </is>
       </c>
     </row>
@@ -761,37 +691,17 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N4" t="n">
-        <v>41.99999868869781</v>
-      </c>
-      <c r="O4" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_3.png</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_3.png</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_2.png</t>
         </is>
       </c>
     </row>
@@ -846,37 +756,17 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>74.00000095367432</v>
-      </c>
-      <c r="O5" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_4.png</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_4.png</t>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_3.png</t>
         </is>
       </c>
     </row>
@@ -931,37 +821,17 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N6" t="n">
-        <v>74.00000095367432</v>
-      </c>
-      <c r="O6" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_5.png</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_5.png</t>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_4.png</t>
         </is>
       </c>
     </row>
@@ -1016,37 +886,17 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N7" t="n">
-        <v>89.99999761581421</v>
-      </c>
-      <c r="O7" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_6.png</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_6.png</t>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_5.png</t>
         </is>
       </c>
     </row>
@@ -1101,37 +951,17 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O8" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.9406779408454895</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_7.png</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_7.png</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_6.png</t>
         </is>
       </c>
     </row>
@@ -1186,37 +1016,17 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N9" t="n">
-        <v>100</v>
-      </c>
-      <c r="O9" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.9703390002250671</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_8.png</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_8.png</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_7.png</t>
         </is>
       </c>
     </row>
@@ -1271,37 +1081,17 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="N10" t="n">
-        <v>23.9999994635582</v>
-      </c>
-      <c r="O10" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_9.png</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_9.png</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_8.png</t>
         </is>
       </c>
     </row>
@@ -1356,37 +1146,17 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N11" t="n">
-        <v>100</v>
-      </c>
-      <c r="O11" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_10.png</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_10.png</t>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_9.png</t>
         </is>
       </c>
     </row>
@@ -1441,37 +1211,17 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N12" t="n">
-        <v>98.00000190734863</v>
-      </c>
-      <c r="O12" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_11.png</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_11.png</t>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_10.png</t>
         </is>
       </c>
     </row>
@@ -1526,37 +1276,17 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N13" t="n">
-        <v>87.99999952316284</v>
-      </c>
-      <c r="O13" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="P13" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_12.png</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_12.png</t>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_11.png</t>
         </is>
       </c>
     </row>
@@ -1611,37 +1341,17 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99999713897705</v>
-      </c>
-      <c r="O14" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="P14" t="n">
-        <v>0.9618644118309021</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_13.png</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_13.png</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_12.png</t>
         </is>
       </c>
     </row>
@@ -1696,37 +1406,17 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="N15" t="n">
-        <v>75.99999904632568</v>
-      </c>
-      <c r="O15" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="P15" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_14.png</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_14.png</t>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_13.png</t>
         </is>
       </c>
     </row>
@@ -1781,37 +1471,17 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="N16" t="n">
-        <v>3.999999910593033</v>
-      </c>
-      <c r="O16" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="P16" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_15.png</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_15.png</t>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_14.png</t>
         </is>
       </c>
     </row>
@@ -1866,37 +1536,17 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N17" t="n">
-        <v>74.00000095367432</v>
-      </c>
-      <c r="O17" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="P17" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_16.png</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_16.png</t>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_15.png</t>
         </is>
       </c>
     </row>
@@ -1951,37 +1601,17 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N18" t="n">
-        <v>68.00000071525574</v>
-      </c>
-      <c r="O18" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="P18" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_17.png</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_17.png</t>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_16.png</t>
         </is>
       </c>
     </row>
@@ -2036,37 +1666,17 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.8166666626930237</v>
       </c>
       <c r="N19" t="n">
-        <v>31.99999928474426</v>
-      </c>
-      <c r="O19" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="P19" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_18.png</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_18.png</t>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_17.png</t>
         </is>
       </c>
     </row>
@@ -2121,37 +1731,17 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N20" t="n">
-        <v>100</v>
-      </c>
-      <c r="O20" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="P20" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_19.png</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_19.png</t>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_18.png</t>
         </is>
       </c>
     </row>
@@ -2206,37 +1796,17 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
-      </c>
-      <c r="O21" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_20.png</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_20.png</t>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_19.png</t>
         </is>
       </c>
     </row>
@@ -2291,37 +1861,17 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.7666666507720947</v>
       </c>
       <c r="N22" t="n">
-        <v>86.00000143051147</v>
-      </c>
-      <c r="O22" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="P22" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_21.png</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_21.png</t>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_20.png</t>
         </is>
       </c>
     </row>
@@ -2376,37 +1926,17 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N23" t="n">
-        <v>100</v>
-      </c>
-      <c r="O23" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="P23" t="n">
-        <v>0.9533898234367371</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_22.png</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_22.png</t>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_21.png</t>
         </is>
       </c>
     </row>
@@ -2461,37 +1991,17 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>86.00000143051147</v>
-      </c>
-      <c r="O24" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="P24" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_23.png</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_23.png</t>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_22.png</t>
         </is>
       </c>
     </row>
@@ -2546,37 +2056,17 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>43.99999976158142</v>
-      </c>
-      <c r="O25" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="P25" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_24.png</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_24.png</t>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_23.png</t>
         </is>
       </c>
     </row>
@@ -2631,37 +2121,17 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N26" t="n">
-        <v>89.99999761581421</v>
-      </c>
-      <c r="O26" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="P26" t="n">
-        <v>0.9703390002250671</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_25.png</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_25.png</t>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_24.png</t>
         </is>
       </c>
     </row>
@@ -2716,37 +2186,17 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99999928474426</v>
-      </c>
-      <c r="O27" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="P27" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_26.png</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_26.png</t>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_25.png</t>
         </is>
       </c>
     </row>
@@ -2801,37 +2251,17 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N28" t="n">
-        <v>41.99999868869781</v>
-      </c>
-      <c r="O28" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="P28" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_27.png</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_27.png</t>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_26.png</t>
         </is>
       </c>
     </row>
@@ -2886,37 +2316,17 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N29" t="n">
-        <v>100</v>
-      </c>
-      <c r="O29" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="P29" t="n">
-        <v>0.9703390002250671</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_28.png</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_28.png</t>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_27.png</t>
         </is>
       </c>
     </row>
@@ -2971,37 +2381,17 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N30" t="n">
-        <v>86.00000143051147</v>
-      </c>
-      <c r="O30" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_29.png</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_29.png</t>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_28.png</t>
         </is>
       </c>
     </row>
@@ -3056,37 +2446,17 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N31" t="n">
-        <v>69.9999988079071</v>
-      </c>
-      <c r="O31" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="P31" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_30.png</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_30.png</t>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_29.png</t>
         </is>
       </c>
     </row>
@@ -3141,37 +2511,17 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N32" t="n">
-        <v>100</v>
-      </c>
-      <c r="O32" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_31.png</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_31.png</t>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_30.png</t>
         </is>
       </c>
     </row>
@@ -3226,37 +2576,17 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N33" t="n">
-        <v>100</v>
-      </c>
-      <c r="O33" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="P33" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_32.png</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_32.png</t>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_31.png</t>
         </is>
       </c>
     </row>
@@ -3311,37 +2641,17 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N34" t="n">
-        <v>47.99999892711639</v>
-      </c>
-      <c r="O34" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_33.png</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_33.png</t>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_32.png</t>
         </is>
       </c>
     </row>
@@ -3396,37 +2706,17 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N35" t="n">
-        <v>100</v>
-      </c>
-      <c r="O35" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_34.png</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_34.png</t>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_33.png</t>
         </is>
       </c>
     </row>
@@ -3481,37 +2771,17 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N36" t="n">
-        <v>100</v>
-      </c>
-      <c r="O36" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_35.png</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_35.png</t>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_34.png</t>
         </is>
       </c>
     </row>
@@ -3566,37 +2836,17 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N37" t="n">
-        <v>100</v>
-      </c>
-      <c r="O37" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="P37" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_36.png</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_36.png</t>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_35.png</t>
         </is>
       </c>
     </row>
@@ -3651,37 +2901,17 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N38" t="n">
-        <v>100</v>
-      </c>
-      <c r="O38" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="P38" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_37.png</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_37.png</t>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_36.png</t>
         </is>
       </c>
     </row>
@@ -3736,37 +2966,17 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N39" t="n">
-        <v>54.00000214576721</v>
-      </c>
-      <c r="O39" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="P39" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_38.png</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_38.png</t>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_37.png</t>
         </is>
       </c>
     </row>
@@ -3821,37 +3031,17 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N40" t="n">
-        <v>86.00000143051147</v>
-      </c>
-      <c r="O40" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="P40" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_39.png</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_39.png</t>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_38.png</t>
         </is>
       </c>
     </row>
@@ -3906,37 +3096,17 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N41" t="n">
-        <v>100</v>
-      </c>
-      <c r="O41" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="P41" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_40.png</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_40.png</t>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_39.png</t>
         </is>
       </c>
     </row>
@@ -3991,37 +3161,17 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N42" t="n">
-        <v>54.00000214576721</v>
-      </c>
-      <c r="O42" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_41.png</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_41.png</t>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_40.png</t>
         </is>
       </c>
     </row>
@@ -4076,37 +3226,17 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N43" t="n">
-        <v>57.99999833106995</v>
-      </c>
-      <c r="O43" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_42.png</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_42.png</t>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_41.png</t>
         </is>
       </c>
     </row>
@@ -4161,37 +3291,17 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.9520833492279053</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N44" t="n">
-        <v>11.9999997317791</v>
-      </c>
-      <c r="O44" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="P44" t="n">
-        <v>0.9322034120559692</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_43.png</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_43.png</t>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_42.png</t>
         </is>
       </c>
     </row>
@@ -4246,37 +3356,17 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>87.99999952316284</v>
-      </c>
-      <c r="O45" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="P45" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_44.png</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_44.png</t>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_43.png</t>
         </is>
       </c>
     </row>
@@ -4331,37 +3421,17 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="N46" t="n">
-        <v>37.99999952316284</v>
-      </c>
-      <c r="O46" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="P46" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_45.png</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_45.png</t>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_44.png</t>
         </is>
       </c>
     </row>
@@ -4416,37 +3486,17 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N47" t="n">
-        <v>25.99999904632568</v>
-      </c>
-      <c r="O47" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="P47" t="n">
-        <v>0.9576271176338196</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_46.png</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_46.png</t>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_45.png</t>
         </is>
       </c>
     </row>
@@ -4501,37 +3551,17 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>86.00000143051147</v>
-      </c>
-      <c r="O48" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="P48" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_47.png</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_47.png</t>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_46.png</t>
         </is>
       </c>
     </row>
@@ -4586,37 +3616,17 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N49" t="n">
-        <v>100</v>
-      </c>
-      <c r="O49" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="P49" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_48.png</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_48.png</t>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_47.png</t>
         </is>
       </c>
     </row>
@@ -4671,37 +3681,17 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N50" t="n">
-        <v>72.00000286102295</v>
-      </c>
-      <c r="O50" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="P50" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_49.png</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_49.png</t>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_48.png</t>
         </is>
       </c>
     </row>
@@ -4756,37 +3746,17 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N51" t="n">
-        <v>95.99999785423279</v>
-      </c>
-      <c r="O51" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="P51" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_50.png</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_50.png</t>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_49.png</t>
         </is>
       </c>
     </row>
@@ -4841,37 +3811,17 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.6166666746139526</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="P52" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_51.png</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_51.png</t>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_50.png</t>
         </is>
       </c>
     </row>
@@ -4926,37 +3876,17 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N53" t="n">
-        <v>68.00000071525574</v>
-      </c>
-      <c r="O53" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="P53" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_52.png</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_52.png</t>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_51.png</t>
         </is>
       </c>
     </row>
@@ -5011,37 +3941,17 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>0.7166666388511658</v>
       </c>
       <c r="N54" t="n">
-        <v>54.00000214576721</v>
-      </c>
-      <c r="O54" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="P54" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_53.png</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_53.png</t>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_52.png</t>
         </is>
       </c>
     </row>
@@ -5096,37 +4006,17 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>25.99999904632568</v>
-      </c>
-      <c r="O55" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="P55" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_54.png</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_54.png</t>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_53.png</t>
         </is>
       </c>
     </row>
@@ -5181,37 +4071,17 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N56" t="n">
-        <v>93.99999976158142</v>
-      </c>
-      <c r="O56" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="P56" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_55.png</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_55.png</t>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_54.png</t>
         </is>
       </c>
     </row>
@@ -5266,37 +4136,17 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N57" t="n">
-        <v>100</v>
-      </c>
-      <c r="O57" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="P57" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_56.png</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_56.png</t>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_55.png</t>
         </is>
       </c>
     </row>
@@ -5351,37 +4201,17 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>98.00000190734863</v>
-      </c>
-      <c r="O58" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="P58" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_57.png</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_57.png</t>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_56.png</t>
         </is>
       </c>
     </row>
@@ -5436,37 +4266,17 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N59" t="n">
-        <v>77.99999713897705</v>
-      </c>
-      <c r="O59" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="P59" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_58.png</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_58.png</t>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_57.png</t>
         </is>
       </c>
     </row>
@@ -5521,37 +4331,17 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N60" t="n">
-        <v>95.99999785423279</v>
-      </c>
-      <c r="O60" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="P60" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_59.png</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_59.png</t>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_58.png</t>
         </is>
       </c>
     </row>
@@ -5606,37 +4396,17 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N61" t="n">
-        <v>87.99999952316284</v>
-      </c>
-      <c r="O61" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="P61" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_60.png</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_60.png</t>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_59.png</t>
         </is>
       </c>
     </row>
@@ -5691,37 +4461,17 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N62" t="n">
-        <v>21.99999988079071</v>
-      </c>
-      <c r="O62" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="P62" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_61.png</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_61.png</t>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_60.png</t>
         </is>
       </c>
     </row>
@@ -5776,37 +4526,17 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N63" t="n">
-        <v>15.99999964237213</v>
-      </c>
-      <c r="O63" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="P63" t="n">
-        <v>0.9703390002250671</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_62.png</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_62.png</t>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_61.png</t>
         </is>
       </c>
     </row>
@@ -5861,37 +4591,17 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="P64" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_63.png</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_63.png</t>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_62.png</t>
         </is>
       </c>
     </row>
@@ -5946,37 +4656,17 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N65" t="n">
-        <v>10.00000014901161</v>
-      </c>
-      <c r="O65" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="P65" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_64.png</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_64.png</t>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_63.png</t>
         </is>
       </c>
     </row>
@@ -6031,37 +4721,17 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="N66" t="n">
-        <v>34.00000035762787</v>
-      </c>
-      <c r="O66" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="P66" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_65.png</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_65.png</t>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_64.png</t>
         </is>
       </c>
     </row>
@@ -6116,37 +4786,17 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N67" t="n">
-        <v>21.99999988079071</v>
-      </c>
-      <c r="O67" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="P67" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_66.png</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_66.png</t>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_65.png</t>
         </is>
       </c>
     </row>
@@ -6201,37 +4851,17 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N68" t="n">
-        <v>23.9999994635582</v>
-      </c>
-      <c r="O68" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="P68" t="n">
-        <v>0.9703390002250671</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_67.png</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_67.png</t>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_66.png</t>
         </is>
       </c>
     </row>
@@ -6286,37 +4916,17 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N69" t="n">
-        <v>100</v>
-      </c>
-      <c r="O69" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="P69" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_68.png</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_68.png</t>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_67.png</t>
         </is>
       </c>
     </row>
@@ -6371,37 +4981,17 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N70" t="n">
-        <v>89.99999761581421</v>
-      </c>
-      <c r="O70" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="P70" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_69.png</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_69.png</t>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_68.png</t>
         </is>
       </c>
     </row>
@@ -6456,37 +5046,17 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.6833333373069763</v>
       </c>
       <c r="N71" t="n">
-        <v>18.00000071525574</v>
-      </c>
-      <c r="O71" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="P71" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_70.png</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_70.png</t>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_69.png</t>
         </is>
       </c>
     </row>
@@ -6541,37 +5111,17 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N72" t="n">
-        <v>57.99999833106995</v>
-      </c>
-      <c r="O72" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="P72" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_71.png</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_71.png</t>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_70.png</t>
         </is>
       </c>
     </row>
@@ -6626,37 +5176,17 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N73" t="n">
-        <v>95.99999785423279</v>
-      </c>
-      <c r="O73" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="P73" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_72.png</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_72.png</t>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_71.png</t>
         </is>
       </c>
     </row>
@@ -6711,37 +5241,17 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N74" t="n">
-        <v>54.00000214576721</v>
-      </c>
-      <c r="O74" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="P74" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_73.png</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_73.png</t>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_72.png</t>
         </is>
       </c>
     </row>
@@ -6796,37 +5306,17 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N75" t="n">
-        <v>36.00000143051147</v>
-      </c>
-      <c r="O75" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="P75" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="R75" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_74.png</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_74.png</t>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_73.png</t>
         </is>
       </c>
     </row>
@@ -6881,37 +5371,17 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N76" t="n">
-        <v>23.9999994635582</v>
-      </c>
-      <c r="O76" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="P76" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_75.png</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_75.png</t>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_74.png</t>
         </is>
       </c>
     </row>
@@ -6966,37 +5436,17 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>31.99999928474426</v>
-      </c>
-      <c r="O77" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="P77" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_76.png</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_76.png</t>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_75.png</t>
         </is>
       </c>
     </row>
@@ -7051,37 +5501,17 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N78" t="n">
-        <v>62.00000047683716</v>
-      </c>
-      <c r="O78" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="P78" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_77.png</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_77.png</t>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_76.png</t>
         </is>
       </c>
     </row>
@@ -7136,37 +5566,17 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N79" t="n">
-        <v>72.00000286102295</v>
-      </c>
-      <c r="O79" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="P79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_78.png</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_78.png</t>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_77.png</t>
         </is>
       </c>
     </row>
@@ -7221,37 +5631,17 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>80.0000011920929</v>
-      </c>
-      <c r="O80" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="P80" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_79.png</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_79.png</t>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_78.png</t>
         </is>
       </c>
     </row>
@@ -7306,37 +5696,17 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>77.99999713897705</v>
-      </c>
-      <c r="O81" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="P81" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_80.png</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_80.png</t>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_79.png</t>
         </is>
       </c>
     </row>
@@ -7391,37 +5761,17 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N82" t="n">
-        <v>74.00000095367432</v>
-      </c>
-      <c r="O82" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="P82" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_81.png</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_81.png</t>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_80.png</t>
         </is>
       </c>
     </row>
@@ -7476,37 +5826,17 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N83" t="n">
-        <v>51.99999809265137</v>
-      </c>
-      <c r="O83" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="P83" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_82.png</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_82.png</t>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_81.png</t>
         </is>
       </c>
     </row>
@@ -7561,37 +5891,17 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>80.0000011920929</v>
-      </c>
-      <c r="O84" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="P84" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_83.png</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_83.png</t>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_82.png</t>
         </is>
       </c>
     </row>
@@ -7646,37 +5956,17 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N85" t="n">
-        <v>95.99999785423279</v>
-      </c>
-      <c r="O85" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="P85" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_84.png</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_84.png</t>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_83.png</t>
         </is>
       </c>
     </row>
@@ -7731,37 +6021,17 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N86" t="n">
-        <v>36.00000143051147</v>
-      </c>
-      <c r="O86" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="P86" t="n">
-        <v>0.9745762944221497</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_85.png</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_85.png</t>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_84.png</t>
         </is>
       </c>
     </row>
@@ -7816,37 +6086,17 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N87" t="n">
-        <v>18.00000071525574</v>
-      </c>
-      <c r="O87" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="P87" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_86.png</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_86.png</t>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_85.png</t>
         </is>
       </c>
     </row>
@@ -7901,37 +6151,17 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="N88" t="n">
-        <v>20.00000029802322</v>
-      </c>
-      <c r="O88" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="P88" t="n">
-        <v>0.991525411605835</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_87.png</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_87.png</t>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_86.png</t>
         </is>
       </c>
     </row>
@@ -7986,37 +6216,17 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.96875</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N89" t="n">
-        <v>11.9999997317791</v>
-      </c>
-      <c r="O89" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="P89" t="n">
-        <v>0.9830508232116699</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_88.png</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_88.png</t>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_87.png</t>
         </is>
       </c>
     </row>
@@ -8071,37 +6281,17 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N90" t="n">
-        <v>31.99999928474426</v>
-      </c>
-      <c r="O90" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="P90" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_89.png</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_89.png</t>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_88.png</t>
         </is>
       </c>
     </row>
@@ -8156,37 +6346,17 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N91" t="n">
-        <v>77.99999713897705</v>
-      </c>
-      <c r="O91" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="P91" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_90.png</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_90.png</t>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_89.png</t>
         </is>
       </c>
     </row>
@@ -8241,37 +6411,17 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.956250011920929</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N92" t="n">
-        <v>63.99999856948853</v>
-      </c>
-      <c r="O92" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="P92" t="n">
-        <v>0.9661017060279846</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_91.png</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_91.png</t>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_90.png</t>
         </is>
       </c>
     </row>
@@ -8326,37 +6476,17 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>74.00000095367432</v>
-      </c>
-      <c r="O93" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="P93" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>1</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_92.png</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_92.png</t>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_91.png</t>
         </is>
       </c>
     </row>
@@ -8411,37 +6541,17 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N94" t="n">
-        <v>69.9999988079071</v>
-      </c>
-      <c r="O94" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="P94" t="n">
-        <v>0.9872881174087524</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_93.png</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_93.png</t>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_92.png</t>
         </is>
       </c>
     </row>
@@ -8496,37 +6606,17 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N95" t="n">
-        <v>51.99999809265137</v>
-      </c>
-      <c r="O95" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="P95" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_94.png</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_94.png</t>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_93.png</t>
         </is>
       </c>
     </row>
@@ -8581,37 +6671,17 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N96" t="n">
-        <v>75.99999904632568</v>
-      </c>
-      <c r="O96" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="P96" t="n">
-        <v>0.9788135886192322</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_95.png</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_95.png</t>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_94.png</t>
         </is>
       </c>
     </row>
@@ -8666,37 +6736,17 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N97" t="n">
-        <v>83.99999737739563</v>
-      </c>
-      <c r="O97" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="P97" t="n">
-        <v>0.9957627058029175</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>./plots/full_face/hist/history_96.png</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>./plots/full_face/cm/confusion_matrix_96.png</t>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>./plots/full_face/hist/history_95.png</t>
         </is>
       </c>
     </row>

--- a/DriverDrowsiness/results/output_ff.xlsx
+++ b/DriverDrowsiness/results/output_ff.xlsx
@@ -561,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N2" t="n">
         <v>3.196109771728516</v>
@@ -629,7 +629,7 @@
         <v>0.981249988079071</v>
       </c>
       <c r="M3" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N3" t="n">
         <v>3.196109771728516</v>
@@ -691,10 +691,10 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N4" t="n">
         <v>3.196109771728516</v>
@@ -756,10 +756,10 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N5" t="n">
         <v>3.196109771728516</v>
@@ -821,7 +821,7 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M6" t="n">
         <v>0.9333333373069763</v>
@@ -886,10 +886,10 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9833333492279053</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>3.196109771728516</v>
@@ -951,10 +951,10 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="N8" t="n">
         <v>1.617740631103516</v>
@@ -1019,7 +1019,7 @@
         <v>0.9770833253860474</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N9" t="n">
         <v>1.617740631103516</v>
@@ -1081,10 +1081,10 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N10" t="n">
         <v>1.617740631103516</v>
@@ -1146,10 +1146,10 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N11" t="n">
         <v>1.617740631103516</v>
@@ -1211,10 +1211,10 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N12" t="n">
         <v>1.617740631103516</v>
@@ -1276,10 +1276,10 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N13" t="n">
         <v>1.617740631103516</v>
@@ -1341,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
+        <v>0.9895833134651184</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.9833333492279053</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9333333373069763</v>
       </c>
       <c r="N14" t="n">
         <v>3.177555084228516</v>
@@ -1406,10 +1406,10 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M15" t="n">
-        <v>0.800000011920929</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N15" t="n">
         <v>3.177555084228516</v>
@@ -1471,10 +1471,10 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.8166666626930237</v>
       </c>
       <c r="N16" t="n">
         <v>3.177555084228516</v>
@@ -1601,10 +1601,10 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9666666388511658</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>3.177555084228516</v>
@@ -1666,10 +1666,10 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8166666626930237</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="N19" t="n">
         <v>3.177555084228516</v>
@@ -1731,10 +1731,10 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N20" t="n">
         <v>1.599185943603516</v>
@@ -1796,7 +1796,7 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1861,10 +1861,10 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7666666507720947</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N22" t="n">
         <v>1.599185943603516</v>
@@ -1926,10 +1926,10 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N23" t="n">
         <v>1.599185943603516</v>
@@ -1991,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -2056,10 +2056,10 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N25" t="n">
         <v>1.599185943603516</v>
@@ -2121,10 +2121,10 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N26" t="n">
         <v>1.621250152587891</v>
@@ -2186,10 +2186,10 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N27" t="n">
         <v>1.621250152587891</v>
@@ -2251,10 +2251,10 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="N28" t="n">
         <v>1.621250152587891</v>
@@ -2316,10 +2316,10 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
+        <v>0.9937499761581421</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.9833333492279053</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.8999999761581421</v>
       </c>
       <c r="N29" t="n">
         <v>1.621250152587891</v>
@@ -2381,10 +2381,10 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N30" t="n">
         <v>1.621250152587891</v>
@@ -2446,10 +2446,10 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.8166666626930237</v>
       </c>
       <c r="N31" t="n">
         <v>1.621250152587891</v>
@@ -2511,10 +2511,10 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N32" t="n">
         <v>0.8241310119628906</v>
@@ -2576,10 +2576,10 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N33" t="n">
         <v>0.8241310119628906</v>
@@ -2641,10 +2641,10 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>0.981249988079071</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N34" t="n">
         <v>0.8241310119628906</v>
@@ -2706,10 +2706,10 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M35" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N35" t="n">
         <v>0.8241310119628906</v>
@@ -2771,7 +2771,7 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M36" t="n">
         <v>0.9166666865348816</v>
@@ -2836,10 +2836,10 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N37" t="n">
         <v>0.8241310119628906</v>
@@ -2966,7 +2966,7 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>0.981249988079071</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M39" t="n">
         <v>0.8833333253860474</v>
@@ -3031,10 +3031,10 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N40" t="n">
         <v>1.610507965087891</v>
@@ -3096,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M41" t="n">
         <v>0.9833333492279053</v>
@@ -3161,7 +3161,7 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M42" t="n">
         <v>0.9833333492279053</v>
@@ -3226,10 +3226,10 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9916666746139526</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N43" t="n">
         <v>1.610507965087891</v>
@@ -3291,10 +3291,10 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9520833492279053</v>
+        <v>0.9604166746139526</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N44" t="n">
         <v>0.8133888244628906</v>
@@ -3359,7 +3359,7 @@
         <v>0.9791666865348816</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N45" t="n">
         <v>0.8133888244628906</v>
@@ -3421,10 +3421,10 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.6833333373069763</v>
       </c>
       <c r="N46" t="n">
         <v>0.8133888244628906</v>
@@ -3486,10 +3486,10 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.96875</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N47" t="n">
         <v>0.8133888244628906</v>
@@ -3551,10 +3551,10 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
+        <v>0.9854166507720947</v>
+      </c>
+      <c r="M48" t="n">
         <v>0.9833333492279053</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
       </c>
       <c r="N48" t="n">
         <v>0.8133888244628906</v>
@@ -3616,7 +3616,7 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9979166388511658</v>
       </c>
       <c r="M49" t="n">
         <v>0.9666666388511658</v>
@@ -3681,10 +3681,10 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9333333373069763</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>3.181461334228516</v>
@@ -3746,10 +3746,10 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
+        <v>0.9791666865348816</v>
+      </c>
+      <c r="M51" t="n">
         <v>0.9833333492279053</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9666666388511658</v>
       </c>
       <c r="N51" t="n">
         <v>3.181461334228516</v>
@@ -3811,10 +3811,10 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M52" t="n">
-        <v>0.6166666746139526</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N52" t="n">
         <v>3.181461334228516</v>
@@ -3876,10 +3876,10 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M53" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N53" t="n">
         <v>3.181461334228516</v>
@@ -3941,10 +3941,10 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7166666388511658</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N54" t="n">
         <v>3.181461334228516</v>
@@ -4009,7 +4009,7 @@
         <v>0.9895833134651184</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N55" t="n">
         <v>3.181461334228516</v>
@@ -4071,10 +4071,10 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N56" t="n">
         <v>1.603092193603516</v>
@@ -4136,10 +4136,10 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9166666865348816</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>1.603092193603516</v>
@@ -4201,10 +4201,10 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N58" t="n">
         <v>1.603092193603516</v>
@@ -4266,10 +4266,10 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M59" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>1.603092193603516</v>
@@ -4331,10 +4331,10 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M60" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N60" t="n">
         <v>1.603092193603516</v>
@@ -4399,7 +4399,7 @@
         <v>0.9791666865348816</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="N61" t="n">
         <v>1.603092193603516</v>
@@ -4461,7 +4461,7 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M62" t="n">
         <v>0.8999999761581421</v>
@@ -4526,10 +4526,10 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M63" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="N63" t="n">
         <v>3.172183990478516</v>
@@ -4591,10 +4591,10 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M64" t="n">
-        <v>0.75</v>
+        <v>0.5666666626930237</v>
       </c>
       <c r="N64" t="n">
         <v>3.172183990478516</v>
@@ -4656,10 +4656,10 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M65" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N65" t="n">
         <v>3.172183990478516</v>
@@ -4721,10 +4721,10 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M66" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N66" t="n">
         <v>3.172183990478516</v>
@@ -4786,10 +4786,10 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9958333373069763</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N67" t="n">
         <v>3.172183990478516</v>
@@ -4851,10 +4851,10 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M68" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N68" t="n">
         <v>1.593814849853516</v>
@@ -4916,10 +4916,10 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M69" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N69" t="n">
         <v>1.593814849853516</v>
@@ -4984,7 +4984,7 @@
         <v>0.9708333611488342</v>
       </c>
       <c r="M70" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N70" t="n">
         <v>1.593814849853516</v>
@@ -5046,10 +5046,10 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6833333373069763</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N71" t="n">
         <v>1.593814849853516</v>
@@ -5111,7 +5111,7 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M72" t="n">
         <v>0.9833333492279053</v>
@@ -5176,10 +5176,10 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9958333373069763</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M73" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N73" t="n">
         <v>1.593814849853516</v>
@@ -5241,10 +5241,10 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9729166626930237</v>
+        <v>0.96875</v>
       </c>
       <c r="M74" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N74" t="n">
         <v>1.612705230712891</v>
@@ -5306,10 +5306,10 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9958333373069763</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M75" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N75" t="n">
         <v>1.612705230712891</v>
@@ -5371,10 +5371,10 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M76" t="n">
-        <v>0.75</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N76" t="n">
         <v>1.612705230712891</v>
@@ -5436,10 +5436,10 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.96875</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N77" t="n">
         <v>1.612705230712891</v>
@@ -5501,10 +5501,10 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N78" t="n">
         <v>1.612705230712891</v>
@@ -5569,7 +5569,7 @@
         <v>0.9916666746139526</v>
       </c>
       <c r="M79" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9166666865348816</v>
       </c>
       <c r="N79" t="n">
         <v>1.612705230712891</v>
@@ -5631,7 +5631,7 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9458333253860474</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
@@ -5696,10 +5696,10 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.96875</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N81" t="n">
         <v>0.8155860900878906</v>
@@ -5761,10 +5761,10 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M82" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N82" t="n">
         <v>0.8155860900878906</v>
@@ -5826,10 +5826,10 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M83" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N83" t="n">
         <v>0.8155860900878906</v>
@@ -5891,10 +5891,10 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N84" t="n">
         <v>0.8155860900878906</v>
@@ -5956,10 +5956,10 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M85" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N85" t="n">
         <v>0.8155860900878906</v>
@@ -6021,10 +6021,10 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M86" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N86" t="n">
         <v>1.607334136962891</v>
@@ -6086,10 +6086,10 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M87" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N87" t="n">
         <v>1.607334136962891</v>
@@ -6151,7 +6151,7 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M88" t="n">
         <v>0.6333333253860474</v>
@@ -6216,7 +6216,7 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>0.96875</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M89" t="n">
         <v>0.949999988079071</v>
@@ -6284,7 +6284,7 @@
         <v>0.9895833134651184</v>
       </c>
       <c r="M90" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N90" t="n">
         <v>1.607334136962891</v>
@@ -6346,10 +6346,10 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9979166388511658</v>
       </c>
       <c r="M91" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N91" t="n">
         <v>1.607334136962891</v>
@@ -6411,10 +6411,10 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M92" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N92" t="n">
         <v>0.8102149963378906</v>
@@ -6476,10 +6476,10 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N93" t="n">
         <v>0.8102149963378906</v>
@@ -6541,10 +6541,10 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9958333373069763</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M94" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N94" t="n">
         <v>0.8102149963378906</v>
@@ -6606,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M95" t="n">
         <v>0.9833333492279053</v>
@@ -6671,10 +6671,10 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M96" t="n">
-        <v>0.8333333134651184</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
         <v>0.8102149963378906</v>
